--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,15 @@
     <t>['45+3']</t>
   </si>
   <si>
+    <t>['9', '14', '55', '66']</t>
+  </si>
+  <si>
+    <t>['26', '28', '45+2', '57']</t>
+  </si>
+  <si>
+    <t>['33', '45+1', '90+2']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -665,6 +674,9 @@
   </si>
   <si>
     <t>['9', '64', '80']</t>
+  </si>
+  <si>
+    <t>['45+1', '77']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1903,7 +1915,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2109,7 +2121,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2521,7 +2533,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2727,7 +2739,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3011,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ10">
         <v>0.86</v>
@@ -3220,7 +3232,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ11">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3345,7 +3357,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3426,7 +3438,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ12">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3551,7 +3563,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3757,7 +3769,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3835,10 +3847,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ14">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4581,7 +4593,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4865,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4993,7 +5005,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5199,7 +5211,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5405,7 +5417,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5611,7 +5623,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5817,7 +5829,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6023,7 +6035,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6101,10 +6113,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ25">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR25">
         <v>1.06</v>
@@ -6229,7 +6241,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6310,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.84</v>
@@ -6847,7 +6859,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6928,7 +6940,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ29">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>2.31</v>
@@ -7131,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7259,7 +7271,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7465,7 +7477,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8083,7 +8095,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8495,7 +8507,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8782,7 +8794,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ38">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -8988,7 +9000,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ39">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR39">
         <v>2.1</v>
@@ -9191,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9319,7 +9331,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9397,7 +9409,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ41">
         <v>1.75</v>
@@ -9731,7 +9743,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9937,7 +9949,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10018,7 +10030,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ44">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>0.98</v>
@@ -10349,7 +10361,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10555,7 +10567,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10761,7 +10773,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11045,7 +11057,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.63</v>
@@ -11379,7 +11391,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11585,7 +11597,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11997,7 +12009,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12078,7 +12090,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ54">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12203,7 +12215,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12409,7 +12421,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12615,7 +12627,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12821,7 +12833,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13027,7 +13039,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13233,7 +13245,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13439,7 +13451,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13645,7 +13657,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13851,7 +13863,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14057,7 +14069,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14675,7 +14687,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14881,7 +14893,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14959,7 +14971,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1.43</v>
@@ -15168,7 +15180,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ69">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>1.58</v>
@@ -15371,7 +15383,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ70">
         <v>2.25</v>
@@ -15499,7 +15511,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15786,7 +15798,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ72">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR72">
         <v>1.2</v>
@@ -16117,7 +16129,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16735,7 +16747,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16941,7 +16953,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17147,7 +17159,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17353,7 +17365,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17559,7 +17571,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17637,7 +17649,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ81">
         <v>1.75</v>
@@ -17971,7 +17983,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18255,7 +18267,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ84">
         <v>1.63</v>
@@ -18464,7 +18476,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ85">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR85">
         <v>0.86</v>
@@ -18589,7 +18601,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -18667,7 +18679,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
         <v>0.71</v>
@@ -18876,7 +18888,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ87">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.76</v>
@@ -19288,7 +19300,7 @@
         <v>1</v>
       </c>
       <c r="AQ89">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.32</v>
@@ -19903,7 +19915,7 @@
         <v>0.67</v>
       </c>
       <c r="AP92">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ92">
         <v>0.5</v>
@@ -20112,7 +20124,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ93">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR93">
         <v>1.84</v>
@@ -20237,7 +20249,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q94">
         <v>17</v>
@@ -20443,7 +20455,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20727,10 +20739,10 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.59</v>
@@ -20855,7 +20867,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21142,7 +21154,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ98">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR98">
         <v>2.07</v>
@@ -21345,7 +21357,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ99">
         <v>1.29</v>
@@ -21551,7 +21563,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ100">
         <v>1.43</v>
@@ -21679,7 +21691,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22297,7 +22309,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22503,7 +22515,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22709,7 +22721,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23121,7 +23133,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23408,7 +23420,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ109">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR109">
         <v>1.77</v>
@@ -23533,7 +23545,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23945,7 +23957,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24229,10 +24241,10 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ113">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR113">
         <v>1.39</v>
@@ -24435,7 +24447,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ114">
         <v>0.71</v>
@@ -24644,7 +24656,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ115">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.45</v>
@@ -24769,7 +24781,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -24975,7 +24987,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25181,7 +25193,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q118">
         <v>6.5</v>
@@ -25387,7 +25399,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25593,7 +25605,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -25671,7 +25683,7 @@
         <v>3</v>
       </c>
       <c r="AP120">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
         <v>3</v>
@@ -25749,6 +25761,624 @@
         <v>0</v>
       </c>
       <c r="BP120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7455992</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45618.5</v>
+      </c>
+      <c r="F121">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>84</v>
+      </c>
+      <c r="H121" t="s">
+        <v>76</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>156</v>
+      </c>
+      <c r="P121" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q121">
+        <v>2.05</v>
+      </c>
+      <c r="R121">
+        <v>2.2</v>
+      </c>
+      <c r="S121">
+        <v>7.5</v>
+      </c>
+      <c r="T121">
+        <v>1.5</v>
+      </c>
+      <c r="U121">
+        <v>2.5</v>
+      </c>
+      <c r="V121">
+        <v>3.4</v>
+      </c>
+      <c r="W121">
+        <v>1.3</v>
+      </c>
+      <c r="X121">
+        <v>10</v>
+      </c>
+      <c r="Y121">
+        <v>1.06</v>
+      </c>
+      <c r="Z121">
+        <v>1.45</v>
+      </c>
+      <c r="AA121">
+        <v>4</v>
+      </c>
+      <c r="AB121">
+        <v>8</v>
+      </c>
+      <c r="AC121">
+        <v>1.05</v>
+      </c>
+      <c r="AD121">
+        <v>8</v>
+      </c>
+      <c r="AE121">
+        <v>1.4</v>
+      </c>
+      <c r="AF121">
+        <v>2.8</v>
+      </c>
+      <c r="AG121">
+        <v>2.1</v>
+      </c>
+      <c r="AH121">
+        <v>1.7</v>
+      </c>
+      <c r="AI121">
+        <v>2.38</v>
+      </c>
+      <c r="AJ121">
+        <v>1.53</v>
+      </c>
+      <c r="AK121">
+        <v>1.11</v>
+      </c>
+      <c r="AL121">
+        <v>1.21</v>
+      </c>
+      <c r="AM121">
+        <v>2.03</v>
+      </c>
+      <c r="AN121">
+        <v>1.86</v>
+      </c>
+      <c r="AO121">
+        <v>0.29</v>
+      </c>
+      <c r="AP121">
+        <v>2</v>
+      </c>
+      <c r="AQ121">
+        <v>0.25</v>
+      </c>
+      <c r="AR121">
+        <v>1.51</v>
+      </c>
+      <c r="AS121">
+        <v>0.97</v>
+      </c>
+      <c r="AT121">
+        <v>2.48</v>
+      </c>
+      <c r="AU121">
+        <v>10</v>
+      </c>
+      <c r="AV121">
+        <v>2</v>
+      </c>
+      <c r="AW121">
+        <v>1</v>
+      </c>
+      <c r="AX121">
+        <v>2</v>
+      </c>
+      <c r="AY121">
+        <v>14</v>
+      </c>
+      <c r="AZ121">
+        <v>6</v>
+      </c>
+      <c r="BA121">
+        <v>3</v>
+      </c>
+      <c r="BB121">
+        <v>3</v>
+      </c>
+      <c r="BC121">
+        <v>6</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>0</v>
+      </c>
+      <c r="BG121">
+        <v>0</v>
+      </c>
+      <c r="BH121">
+        <v>0</v>
+      </c>
+      <c r="BI121">
+        <v>0</v>
+      </c>
+      <c r="BJ121">
+        <v>0</v>
+      </c>
+      <c r="BK121">
+        <v>0</v>
+      </c>
+      <c r="BL121">
+        <v>0</v>
+      </c>
+      <c r="BM121">
+        <v>0</v>
+      </c>
+      <c r="BN121">
+        <v>0</v>
+      </c>
+      <c r="BO121">
+        <v>0</v>
+      </c>
+      <c r="BP121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7455989</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45619.3125</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>78</v>
+      </c>
+      <c r="H122" t="s">
+        <v>72</v>
+      </c>
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>4</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>6</v>
+      </c>
+      <c r="O122" t="s">
+        <v>157</v>
+      </c>
+      <c r="P122" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q122">
+        <v>2.6</v>
+      </c>
+      <c r="R122">
+        <v>1.91</v>
+      </c>
+      <c r="S122">
+        <v>6</v>
+      </c>
+      <c r="T122">
+        <v>1.53</v>
+      </c>
+      <c r="U122">
+        <v>2.38</v>
+      </c>
+      <c r="V122">
+        <v>3.5</v>
+      </c>
+      <c r="W122">
+        <v>1.29</v>
+      </c>
+      <c r="X122">
+        <v>11</v>
+      </c>
+      <c r="Y122">
+        <v>1.05</v>
+      </c>
+      <c r="Z122">
+        <v>1.83</v>
+      </c>
+      <c r="AA122">
+        <v>3.1</v>
+      </c>
+      <c r="AB122">
+        <v>5.25</v>
+      </c>
+      <c r="AC122">
+        <v>1.04</v>
+      </c>
+      <c r="AD122">
+        <v>6.35</v>
+      </c>
+      <c r="AE122">
+        <v>1.43</v>
+      </c>
+      <c r="AF122">
+        <v>2.7</v>
+      </c>
+      <c r="AG122">
+        <v>2.7</v>
+      </c>
+      <c r="AH122">
+        <v>1.44</v>
+      </c>
+      <c r="AI122">
+        <v>2.38</v>
+      </c>
+      <c r="AJ122">
+        <v>1.53</v>
+      </c>
+      <c r="AK122">
+        <v>1.17</v>
+      </c>
+      <c r="AL122">
+        <v>1.28</v>
+      </c>
+      <c r="AM122">
+        <v>1.72</v>
+      </c>
+      <c r="AN122">
+        <v>2.71</v>
+      </c>
+      <c r="AO122">
+        <v>1.14</v>
+      </c>
+      <c r="AP122">
+        <v>2.75</v>
+      </c>
+      <c r="AQ122">
+        <v>1</v>
+      </c>
+      <c r="AR122">
+        <v>1.42</v>
+      </c>
+      <c r="AS122">
+        <v>1.28</v>
+      </c>
+      <c r="AT122">
+        <v>2.7</v>
+      </c>
+      <c r="AU122">
+        <v>6</v>
+      </c>
+      <c r="AV122">
+        <v>5</v>
+      </c>
+      <c r="AW122">
+        <v>7</v>
+      </c>
+      <c r="AX122">
+        <v>7</v>
+      </c>
+      <c r="AY122">
+        <v>13</v>
+      </c>
+      <c r="AZ122">
+        <v>12</v>
+      </c>
+      <c r="BA122">
+        <v>1</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>1</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>0</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>0</v>
+      </c>
+      <c r="BI122">
+        <v>0</v>
+      </c>
+      <c r="BJ122">
+        <v>0</v>
+      </c>
+      <c r="BK122">
+        <v>0</v>
+      </c>
+      <c r="BL122">
+        <v>0</v>
+      </c>
+      <c r="BM122">
+        <v>0</v>
+      </c>
+      <c r="BN122">
+        <v>0</v>
+      </c>
+      <c r="BO122">
+        <v>0</v>
+      </c>
+      <c r="BP122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7455988</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45619.41666666666</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>82</v>
+      </c>
+      <c r="H123" t="s">
+        <v>74</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123" t="s">
+        <v>158</v>
+      </c>
+      <c r="P123" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q123">
+        <v>1.8</v>
+      </c>
+      <c r="R123">
+        <v>2.38</v>
+      </c>
+      <c r="S123">
+        <v>9.5</v>
+      </c>
+      <c r="T123">
+        <v>1.4</v>
+      </c>
+      <c r="U123">
+        <v>2.75</v>
+      </c>
+      <c r="V123">
+        <v>3</v>
+      </c>
+      <c r="W123">
+        <v>1.36</v>
+      </c>
+      <c r="X123">
+        <v>8</v>
+      </c>
+      <c r="Y123">
+        <v>1.08</v>
+      </c>
+      <c r="Z123">
+        <v>1.3</v>
+      </c>
+      <c r="AA123">
+        <v>4.75</v>
+      </c>
+      <c r="AB123">
+        <v>11</v>
+      </c>
+      <c r="AC123">
+        <v>1.02</v>
+      </c>
+      <c r="AD123">
+        <v>7.1</v>
+      </c>
+      <c r="AE123">
+        <v>1.3</v>
+      </c>
+      <c r="AF123">
+        <v>3.3</v>
+      </c>
+      <c r="AG123">
+        <v>1.95</v>
+      </c>
+      <c r="AH123">
+        <v>1.85</v>
+      </c>
+      <c r="AI123">
+        <v>2.5</v>
+      </c>
+      <c r="AJ123">
+        <v>1.5</v>
+      </c>
+      <c r="AK123">
+        <v>1.05</v>
+      </c>
+      <c r="AL123">
+        <v>1.12</v>
+      </c>
+      <c r="AM123">
+        <v>2.65</v>
+      </c>
+      <c r="AN123">
+        <v>2.17</v>
+      </c>
+      <c r="AO123">
+        <v>0.57</v>
+      </c>
+      <c r="AP123">
+        <v>2.29</v>
+      </c>
+      <c r="AQ123">
+        <v>0.5</v>
+      </c>
+      <c r="AR123">
+        <v>1.4</v>
+      </c>
+      <c r="AS123">
+        <v>0.86</v>
+      </c>
+      <c r="AT123">
+        <v>2.26</v>
+      </c>
+      <c r="AU123">
+        <v>10</v>
+      </c>
+      <c r="AV123">
+        <v>2</v>
+      </c>
+      <c r="AW123">
+        <v>11</v>
+      </c>
+      <c r="AX123">
+        <v>2</v>
+      </c>
+      <c r="AY123">
+        <v>23</v>
+      </c>
+      <c r="AZ123">
+        <v>5</v>
+      </c>
+      <c r="BA123">
+        <v>6</v>
+      </c>
+      <c r="BB123">
+        <v>2</v>
+      </c>
+      <c r="BC123">
+        <v>8</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>0</v>
+      </c>
+      <c r="BG123">
+        <v>0</v>
+      </c>
+      <c r="BH123">
+        <v>0</v>
+      </c>
+      <c r="BI123">
+        <v>0</v>
+      </c>
+      <c r="BJ123">
+        <v>0</v>
+      </c>
+      <c r="BK123">
+        <v>0</v>
+      </c>
+      <c r="BL123">
+        <v>0</v>
+      </c>
+      <c r="BM123">
+        <v>0</v>
+      </c>
+      <c r="BN123">
+        <v>0</v>
+      </c>
+      <c r="BO123">
+        <v>0</v>
+      </c>
+      <c r="BP123">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,15 @@
     <t>['33', '45+1', '90+2']</t>
   </si>
   <si>
+    <t>['18', '38']</t>
+  </si>
+  <si>
+    <t>['7', '54']</t>
+  </si>
+  <si>
+    <t>['32', '90+1']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -677,6 +686,15 @@
   </si>
   <si>
     <t>['45+1', '77']</t>
+  </si>
+  <si>
+    <t>['15', '45', '59', '69']</t>
+  </si>
+  <si>
+    <t>['8', '73']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1915,7 +1933,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2121,7 +2139,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2533,7 +2551,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2739,7 +2757,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3026,7 +3044,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ10">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3229,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3357,7 +3375,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3435,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12">
         <v>0.25</v>
@@ -3563,7 +3581,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3641,7 +3659,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ13">
         <v>1.75</v>
@@ -3769,7 +3787,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4053,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4262,7 +4280,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ16">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR16">
         <v>2.14</v>
@@ -4593,7 +4611,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5005,7 +5023,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5211,7 +5229,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5292,7 +5310,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ21">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR21">
         <v>1.21</v>
@@ -5417,7 +5435,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5623,7 +5641,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5829,7 +5847,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5907,7 +5925,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -6035,7 +6053,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6241,7 +6259,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6319,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6525,10 +6543,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ27">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -6734,7 +6752,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ28">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR28">
         <v>1.04</v>
@@ -6859,7 +6877,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7271,7 +7289,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7477,7 +7495,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7555,7 +7573,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -8095,7 +8113,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8382,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR36">
         <v>1.12</v>
@@ -8507,7 +8525,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8588,7 +8606,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ37">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR37">
         <v>1.14</v>
@@ -8997,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ39">
         <v>0.25</v>
@@ -9331,7 +9349,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9615,7 +9633,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ42">
         <v>0.5</v>
@@ -9743,7 +9761,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9821,10 +9839,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -9949,7 +9967,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10236,7 +10254,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ45">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR45">
         <v>2.15</v>
@@ -10361,7 +10379,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10439,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10567,7 +10585,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10773,7 +10791,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -10851,7 +10869,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ48">
         <v>2.25</v>
@@ -11266,7 +11284,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -11391,7 +11409,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11472,7 +11490,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ51">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR51">
         <v>1.15</v>
@@ -11597,7 +11615,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11884,7 +11902,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ53">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR53">
         <v>1.51</v>
@@ -12009,7 +12027,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12215,7 +12233,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12421,7 +12439,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12627,7 +12645,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12705,7 +12723,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
         <v>2.25</v>
@@ -12833,7 +12851,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13039,7 +13057,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13117,7 +13135,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ59">
         <v>1.63</v>
@@ -13245,7 +13263,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13326,7 +13344,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ60">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AR60">
         <v>1.76</v>
@@ -13451,7 +13469,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13657,7 +13675,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13735,10 +13753,10 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ62">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AR62">
         <v>1.36</v>
@@ -13863,7 +13881,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14069,7 +14087,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14150,7 +14168,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ64">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
         <v>0.93</v>
@@ -14353,7 +14371,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65">
         <v>1.75</v>
@@ -14562,7 +14580,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ66">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR66">
         <v>1.69</v>
@@ -14687,7 +14705,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14765,7 +14783,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ67">
         <v>1.63</v>
@@ -14893,7 +14911,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14974,7 +14992,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR68">
         <v>1.47</v>
@@ -15511,7 +15529,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -16001,7 +16019,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -16129,7 +16147,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16210,7 +16228,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ74">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16619,7 +16637,7 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ76">
         <v>2.25</v>
@@ -16747,7 +16765,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16825,7 +16843,7 @@
         <v>0.4</v>
       </c>
       <c r="AP77">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -16953,7 +16971,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17034,7 +17052,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AR78">
         <v>1.44</v>
@@ -17159,7 +17177,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17365,7 +17383,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17571,7 +17589,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17855,10 +17873,10 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ82">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR82">
         <v>1.26</v>
@@ -17983,7 +18001,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18061,10 +18079,10 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ83">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR83">
         <v>2.04</v>
@@ -18601,7 +18619,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -18682,7 +18700,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR86">
         <v>1.38</v>
@@ -19091,7 +19109,7 @@
         <v>1.83</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
         <v>1.75</v>
@@ -19506,7 +19524,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ90">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR90">
         <v>1.28</v>
@@ -19709,7 +19727,7 @@
         <v>0.8</v>
       </c>
       <c r="AP91">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -20249,7 +20267,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q94">
         <v>17</v>
@@ -20330,7 +20348,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ94">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AR94">
         <v>1.22</v>
@@ -20455,7 +20473,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20533,7 +20551,7 @@
         <v>0.33</v>
       </c>
       <c r="AP95">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20867,7 +20885,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20945,10 +20963,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ97">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21151,7 +21169,7 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ98">
         <v>0.5</v>
@@ -21360,7 +21378,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ99">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21566,7 +21584,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ100">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR100">
         <v>1.38</v>
@@ -21691,7 +21709,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -21769,7 +21787,7 @@
         <v>1.67</v>
       </c>
       <c r="AP101">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ101">
         <v>1.75</v>
@@ -21978,7 +21996,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ102">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR102">
         <v>0.92</v>
@@ -22309,7 +22327,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22515,7 +22533,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22721,7 +22739,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23133,7 +23151,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23211,7 +23229,7 @@
         <v>1.86</v>
       </c>
       <c r="AP108">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ108">
         <v>1.75</v>
@@ -23545,7 +23563,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23957,7 +23975,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24035,7 +24053,7 @@
         <v>0.71</v>
       </c>
       <c r="AP112">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24450,7 +24468,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ114">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR114">
         <v>1.23</v>
@@ -24653,7 +24671,7 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ115">
         <v>1</v>
@@ -24781,7 +24799,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -24859,10 +24877,10 @@
         <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ116">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -24987,7 +25005,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25065,10 +25083,10 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ117">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR117">
         <v>2.13</v>
@@ -25193,7 +25211,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q118">
         <v>6.5</v>
@@ -25399,7 +25417,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25477,10 +25495,10 @@
         <v>0.83</v>
       </c>
       <c r="AP119">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ119">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR119">
         <v>2.2</v>
@@ -25605,7 +25623,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -25686,7 +25704,7 @@
         <v>2</v>
       </c>
       <c r="AQ120">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AR120">
         <v>1.59</v>
@@ -26017,7 +26035,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26113,7 +26131,7 @@
         <v>6</v>
       </c>
       <c r="AV122">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW122">
         <v>7</v>
@@ -26122,10 +26140,10 @@
         <v>7</v>
       </c>
       <c r="AY122">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ122">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA122">
         <v>1</v>
@@ -26223,7 +26241,7 @@
         <v>158</v>
       </c>
       <c r="P123" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q123">
         <v>1.8</v>
@@ -26328,7 +26346,7 @@
         <v>2</v>
       </c>
       <c r="AY123">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ123">
         <v>5</v>
@@ -26337,48 +26355,1078 @@
         <v>6</v>
       </c>
       <c r="BB123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC123">
+        <v>9</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>0</v>
+      </c>
+      <c r="BG123">
+        <v>0</v>
+      </c>
+      <c r="BH123">
+        <v>0</v>
+      </c>
+      <c r="BI123">
+        <v>0</v>
+      </c>
+      <c r="BJ123">
+        <v>0</v>
+      </c>
+      <c r="BK123">
+        <v>0</v>
+      </c>
+      <c r="BL123">
+        <v>0</v>
+      </c>
+      <c r="BM123">
+        <v>0</v>
+      </c>
+      <c r="BN123">
+        <v>0</v>
+      </c>
+      <c r="BO123">
+        <v>0</v>
+      </c>
+      <c r="BP123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7455987</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45619.52083333334</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>79</v>
+      </c>
+      <c r="H124" t="s">
+        <v>73</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>159</v>
+      </c>
+      <c r="P124" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q124">
+        <v>1.67</v>
+      </c>
+      <c r="R124">
+        <v>2.5</v>
+      </c>
+      <c r="S124">
+        <v>11</v>
+      </c>
+      <c r="T124">
+        <v>1.36</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.75</v>
+      </c>
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>7</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>1.22</v>
+      </c>
+      <c r="AA124">
+        <v>5.5</v>
+      </c>
+      <c r="AB124">
+        <v>15</v>
+      </c>
+      <c r="AC124">
+        <v>1.02</v>
+      </c>
+      <c r="AD124">
+        <v>7.5</v>
+      </c>
+      <c r="AE124">
+        <v>1.28</v>
+      </c>
+      <c r="AF124">
+        <v>3.45</v>
+      </c>
+      <c r="AG124">
+        <v>1.73</v>
+      </c>
+      <c r="AH124">
+        <v>2.08</v>
+      </c>
+      <c r="AI124">
+        <v>2.5</v>
+      </c>
+      <c r="AJ124">
+        <v>1.5</v>
+      </c>
+      <c r="AK124">
+        <v>1.03</v>
+      </c>
+      <c r="AL124">
+        <v>1.1</v>
+      </c>
+      <c r="AM124">
+        <v>2.9</v>
+      </c>
+      <c r="AN124">
+        <v>2.14</v>
+      </c>
+      <c r="AO124">
+        <v>0.71</v>
+      </c>
+      <c r="AP124">
+        <v>2.25</v>
+      </c>
+      <c r="AQ124">
+        <v>0.63</v>
+      </c>
+      <c r="AR124">
+        <v>2.28</v>
+      </c>
+      <c r="AS124">
+        <v>1.33</v>
+      </c>
+      <c r="AT124">
+        <v>3.61</v>
+      </c>
+      <c r="AU124">
         <v>8</v>
       </c>
-      <c r="BD123">
-        <v>0</v>
-      </c>
-      <c r="BE123">
-        <v>0</v>
-      </c>
-      <c r="BF123">
-        <v>0</v>
-      </c>
-      <c r="BG123">
-        <v>0</v>
-      </c>
-      <c r="BH123">
-        <v>0</v>
-      </c>
-      <c r="BI123">
-        <v>0</v>
-      </c>
-      <c r="BJ123">
-        <v>0</v>
-      </c>
-      <c r="BK123">
-        <v>0</v>
-      </c>
-      <c r="BL123">
-        <v>0</v>
-      </c>
-      <c r="BM123">
-        <v>0</v>
-      </c>
-      <c r="BN123">
-        <v>0</v>
-      </c>
-      <c r="BO123">
-        <v>0</v>
-      </c>
-      <c r="BP123">
+      <c r="AV124">
+        <v>3</v>
+      </c>
+      <c r="AW124">
+        <v>12</v>
+      </c>
+      <c r="AX124">
+        <v>4</v>
+      </c>
+      <c r="AY124">
+        <v>22</v>
+      </c>
+      <c r="AZ124">
+        <v>8</v>
+      </c>
+      <c r="BA124">
+        <v>7</v>
+      </c>
+      <c r="BB124">
+        <v>2</v>
+      </c>
+      <c r="BC124">
+        <v>9</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>0</v>
+      </c>
+      <c r="BG124">
+        <v>0</v>
+      </c>
+      <c r="BH124">
+        <v>0</v>
+      </c>
+      <c r="BI124">
+        <v>0</v>
+      </c>
+      <c r="BJ124">
+        <v>0</v>
+      </c>
+      <c r="BK124">
+        <v>0</v>
+      </c>
+      <c r="BL124">
+        <v>0</v>
+      </c>
+      <c r="BM124">
+        <v>0</v>
+      </c>
+      <c r="BN124">
+        <v>0</v>
+      </c>
+      <c r="BO124">
+        <v>0</v>
+      </c>
+      <c r="BP124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7455986</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45620.30208333334</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>83</v>
+      </c>
+      <c r="H125" t="s">
+        <v>77</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>160</v>
+      </c>
+      <c r="P125" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q125">
+        <v>2.38</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>6.5</v>
+      </c>
+      <c r="T125">
+        <v>1.53</v>
+      </c>
+      <c r="U125">
+        <v>2.38</v>
+      </c>
+      <c r="V125">
+        <v>3.5</v>
+      </c>
+      <c r="W125">
+        <v>1.29</v>
+      </c>
+      <c r="X125">
+        <v>11</v>
+      </c>
+      <c r="Y125">
+        <v>1.05</v>
+      </c>
+      <c r="Z125">
+        <v>1.65</v>
+      </c>
+      <c r="AA125">
+        <v>3.4</v>
+      </c>
+      <c r="AB125">
+        <v>6</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
+      <c r="AD125">
+        <v>0</v>
+      </c>
+      <c r="AE125">
+        <v>1.5</v>
+      </c>
+      <c r="AF125">
+        <v>2.4</v>
+      </c>
+      <c r="AG125">
+        <v>2.35</v>
+      </c>
+      <c r="AH125">
+        <v>1.57</v>
+      </c>
+      <c r="AI125">
+        <v>2.25</v>
+      </c>
+      <c r="AJ125">
+        <v>1.57</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>0</v>
+      </c>
+      <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>1</v>
+      </c>
+      <c r="AO125">
+        <v>1.29</v>
+      </c>
+      <c r="AP125">
+        <v>1.25</v>
+      </c>
+      <c r="AQ125">
+        <v>1.13</v>
+      </c>
+      <c r="AR125">
+        <v>1.35</v>
+      </c>
+      <c r="AS125">
+        <v>1.2</v>
+      </c>
+      <c r="AT125">
+        <v>2.55</v>
+      </c>
+      <c r="AU125">
+        <v>8</v>
+      </c>
+      <c r="AV125">
+        <v>3</v>
+      </c>
+      <c r="AW125">
+        <v>7</v>
+      </c>
+      <c r="AX125">
+        <v>6</v>
+      </c>
+      <c r="AY125">
+        <v>17</v>
+      </c>
+      <c r="AZ125">
+        <v>11</v>
+      </c>
+      <c r="BA125">
+        <v>7</v>
+      </c>
+      <c r="BB125">
+        <v>2</v>
+      </c>
+      <c r="BC125">
+        <v>9</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>0</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
+      <c r="BH125">
+        <v>0</v>
+      </c>
+      <c r="BI125">
+        <v>0</v>
+      </c>
+      <c r="BJ125">
+        <v>0</v>
+      </c>
+      <c r="BK125">
+        <v>0</v>
+      </c>
+      <c r="BL125">
+        <v>0</v>
+      </c>
+      <c r="BM125">
+        <v>0</v>
+      </c>
+      <c r="BN125">
+        <v>0</v>
+      </c>
+      <c r="BO125">
+        <v>0</v>
+      </c>
+      <c r="BP125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7455985</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45620.39583333334</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>81</v>
+      </c>
+      <c r="H126" t="s">
+        <v>70</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>2</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>4</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>86</v>
+      </c>
+      <c r="P126" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q126">
+        <v>3.6</v>
+      </c>
+      <c r="R126">
+        <v>1.91</v>
+      </c>
+      <c r="S126">
+        <v>3.6</v>
+      </c>
+      <c r="T126">
+        <v>1.57</v>
+      </c>
+      <c r="U126">
+        <v>2.25</v>
+      </c>
+      <c r="V126">
+        <v>3.75</v>
+      </c>
+      <c r="W126">
+        <v>1.25</v>
+      </c>
+      <c r="X126">
+        <v>13</v>
+      </c>
+      <c r="Y126">
+        <v>1.04</v>
+      </c>
+      <c r="Z126">
+        <v>2.7</v>
+      </c>
+      <c r="AA126">
+        <v>3</v>
+      </c>
+      <c r="AB126">
+        <v>2.75</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>1.5</v>
+      </c>
+      <c r="AF126">
+        <v>2.4</v>
+      </c>
+      <c r="AG126">
+        <v>2.6</v>
+      </c>
+      <c r="AH126">
+        <v>1.48</v>
+      </c>
+      <c r="AI126">
+        <v>2.2</v>
+      </c>
+      <c r="AJ126">
+        <v>1.62</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>0.71</v>
+      </c>
+      <c r="AO126">
+        <v>1.43</v>
+      </c>
+      <c r="AP126">
+        <v>0.63</v>
+      </c>
+      <c r="AQ126">
+        <v>1.63</v>
+      </c>
+      <c r="AR126">
+        <v>1.58</v>
+      </c>
+      <c r="AS126">
+        <v>1.25</v>
+      </c>
+      <c r="AT126">
+        <v>2.83</v>
+      </c>
+      <c r="AU126">
+        <v>4</v>
+      </c>
+      <c r="AV126">
+        <v>8</v>
+      </c>
+      <c r="AW126">
+        <v>9</v>
+      </c>
+      <c r="AX126">
+        <v>5</v>
+      </c>
+      <c r="AY126">
+        <v>21</v>
+      </c>
+      <c r="AZ126">
+        <v>16</v>
+      </c>
+      <c r="BA126">
+        <v>7</v>
+      </c>
+      <c r="BB126">
+        <v>1</v>
+      </c>
+      <c r="BC126">
+        <v>8</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>0</v>
+      </c>
+      <c r="BG126">
+        <v>0</v>
+      </c>
+      <c r="BH126">
+        <v>0</v>
+      </c>
+      <c r="BI126">
+        <v>0</v>
+      </c>
+      <c r="BJ126">
+        <v>0</v>
+      </c>
+      <c r="BK126">
+        <v>0</v>
+      </c>
+      <c r="BL126">
+        <v>0</v>
+      </c>
+      <c r="BM126">
+        <v>0</v>
+      </c>
+      <c r="BN126">
+        <v>0</v>
+      </c>
+      <c r="BO126">
+        <v>0</v>
+      </c>
+      <c r="BP126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7455991</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45620.5</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>80</v>
+      </c>
+      <c r="H127" t="s">
+        <v>75</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127" t="s">
+        <v>161</v>
+      </c>
+      <c r="P127" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q127">
+        <v>4.33</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>3</v>
+      </c>
+      <c r="T127">
+        <v>1.5</v>
+      </c>
+      <c r="U127">
+        <v>2.5</v>
+      </c>
+      <c r="V127">
+        <v>3.5</v>
+      </c>
+      <c r="W127">
+        <v>1.29</v>
+      </c>
+      <c r="X127">
+        <v>11</v>
+      </c>
+      <c r="Y127">
+        <v>1.05</v>
+      </c>
+      <c r="Z127">
+        <v>3.6</v>
+      </c>
+      <c r="AA127">
+        <v>3.1</v>
+      </c>
+      <c r="AB127">
+        <v>2.2</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
+      <c r="AD127">
+        <v>0</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>2.35</v>
+      </c>
+      <c r="AH127">
+        <v>1.57</v>
+      </c>
+      <c r="AI127">
+        <v>2</v>
+      </c>
+      <c r="AJ127">
+        <v>1.73</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>1.43</v>
+      </c>
+      <c r="AO127">
+        <v>3</v>
+      </c>
+      <c r="AP127">
+        <v>1.38</v>
+      </c>
+      <c r="AQ127">
+        <v>2.71</v>
+      </c>
+      <c r="AR127">
+        <v>2.2</v>
+      </c>
+      <c r="AS127">
+        <v>1.96</v>
+      </c>
+      <c r="AT127">
+        <v>4.16</v>
+      </c>
+      <c r="AU127">
+        <v>5</v>
+      </c>
+      <c r="AV127">
+        <v>6</v>
+      </c>
+      <c r="AW127">
+        <v>6</v>
+      </c>
+      <c r="AX127">
+        <v>8</v>
+      </c>
+      <c r="AY127">
+        <v>13</v>
+      </c>
+      <c r="AZ127">
+        <v>18</v>
+      </c>
+      <c r="BA127">
+        <v>5</v>
+      </c>
+      <c r="BB127">
+        <v>3</v>
+      </c>
+      <c r="BC127">
+        <v>8</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>0</v>
+      </c>
+      <c r="BG127">
+        <v>0</v>
+      </c>
+      <c r="BH127">
+        <v>0</v>
+      </c>
+      <c r="BI127">
+        <v>0</v>
+      </c>
+      <c r="BJ127">
+        <v>0</v>
+      </c>
+      <c r="BK127">
+        <v>0</v>
+      </c>
+      <c r="BL127">
+        <v>0</v>
+      </c>
+      <c r="BM127">
+        <v>0</v>
+      </c>
+      <c r="BN127">
+        <v>0</v>
+      </c>
+      <c r="BO127">
+        <v>0</v>
+      </c>
+      <c r="BP127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7455990</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45621.52083333334</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>85</v>
+      </c>
+      <c r="H128" t="s">
+        <v>71</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>86</v>
+      </c>
+      <c r="P128" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q128">
+        <v>2.5</v>
+      </c>
+      <c r="R128">
+        <v>2.05</v>
+      </c>
+      <c r="S128">
+        <v>5.5</v>
+      </c>
+      <c r="T128">
+        <v>1.53</v>
+      </c>
+      <c r="U128">
+        <v>2.38</v>
+      </c>
+      <c r="V128">
+        <v>3.75</v>
+      </c>
+      <c r="W128">
+        <v>1.25</v>
+      </c>
+      <c r="X128">
+        <v>11</v>
+      </c>
+      <c r="Y128">
+        <v>1.05</v>
+      </c>
+      <c r="Z128">
+        <v>1.75</v>
+      </c>
+      <c r="AA128">
+        <v>3.5</v>
+      </c>
+      <c r="AB128">
+        <v>4.75</v>
+      </c>
+      <c r="AC128">
+        <v>1.03</v>
+      </c>
+      <c r="AD128">
+        <v>6.8</v>
+      </c>
+      <c r="AE128">
+        <v>1.46</v>
+      </c>
+      <c r="AF128">
+        <v>2.6</v>
+      </c>
+      <c r="AG128">
+        <v>2.25</v>
+      </c>
+      <c r="AH128">
+        <v>1.62</v>
+      </c>
+      <c r="AI128">
+        <v>2.1</v>
+      </c>
+      <c r="AJ128">
+        <v>1.67</v>
+      </c>
+      <c r="AK128">
+        <v>1.21</v>
+      </c>
+      <c r="AL128">
+        <v>1.28</v>
+      </c>
+      <c r="AM128">
+        <v>1.64</v>
+      </c>
+      <c r="AN128">
+        <v>1.86</v>
+      </c>
+      <c r="AO128">
+        <v>0.86</v>
+      </c>
+      <c r="AP128">
+        <v>1.63</v>
+      </c>
+      <c r="AQ128">
+        <v>1.13</v>
+      </c>
+      <c r="AR128">
+        <v>1.36</v>
+      </c>
+      <c r="AS128">
+        <v>1.07</v>
+      </c>
+      <c r="AT128">
+        <v>2.43</v>
+      </c>
+      <c r="AU128">
+        <v>8</v>
+      </c>
+      <c r="AV128">
+        <v>4</v>
+      </c>
+      <c r="AW128">
+        <v>7</v>
+      </c>
+      <c r="AX128">
+        <v>1</v>
+      </c>
+      <c r="AY128">
+        <v>22</v>
+      </c>
+      <c r="AZ128">
+        <v>7</v>
+      </c>
+      <c r="BA128">
+        <v>4</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>7</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>0</v>
+      </c>
+      <c r="BG128">
+        <v>0</v>
+      </c>
+      <c r="BH128">
+        <v>0</v>
+      </c>
+      <c r="BI128">
+        <v>0</v>
+      </c>
+      <c r="BJ128">
+        <v>0</v>
+      </c>
+      <c r="BK128">
+        <v>0</v>
+      </c>
+      <c r="BL128">
+        <v>0</v>
+      </c>
+      <c r="BM128">
+        <v>0</v>
+      </c>
+      <c r="BN128">
+        <v>0</v>
+      </c>
+      <c r="BO128">
+        <v>0</v>
+      </c>
+      <c r="BP128">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -26761,7 +26761,7 @@
         <v>17</v>
       </c>
       <c r="AZ125">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA125">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -696,6 +696,9 @@
   <si>
     <t>['44']</t>
   </si>
+  <si>
+    <t>['19', '37']</t>
+  </si>
 </sst>
 </file>
 
@@ -1056,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1399,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ2">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2835,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ9">
         <v>1.75</v>
@@ -4895,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5310,7 +5313,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ21">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR21">
         <v>1.21</v>
@@ -6749,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ28">
         <v>0.63</v>
@@ -7161,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7988,7 +7991,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ34">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.04</v>
@@ -8606,7 +8609,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ37">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR37">
         <v>1.14</v>
@@ -10045,7 +10048,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10666,7 +10669,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.25</v>
@@ -11075,7 +11078,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ49">
         <v>1.63</v>
@@ -11902,7 +11905,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ53">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR53">
         <v>1.51</v>
@@ -12517,7 +12520,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ56">
         <v>0.5</v>
@@ -13962,7 +13965,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ63">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.43</v>
@@ -14989,10 +14992,10 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ68">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR68">
         <v>1.47</v>
@@ -15607,10 +15610,10 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.27</v>
@@ -17255,7 +17258,7 @@
         <v>1.6</v>
       </c>
       <c r="AP79">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ79">
         <v>1.75</v>
@@ -17464,7 +17467,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ80">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR80">
         <v>1.66</v>
@@ -17876,7 +17879,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ82">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR82">
         <v>1.26</v>
@@ -18697,7 +18700,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ86">
         <v>0.63</v>
@@ -20345,7 +20348,7 @@
         <v>3</v>
       </c>
       <c r="AP94">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ94">
         <v>2.71</v>
@@ -20757,7 +20760,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21584,7 +21587,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ100">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR100">
         <v>1.38</v>
@@ -22202,7 +22205,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ103">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR103">
         <v>1.82</v>
@@ -23847,7 +23850,7 @@
         <v>2.57</v>
       </c>
       <c r="AP111">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ111">
         <v>2.25</v>
@@ -24880,7 +24883,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ116">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25292,7 +25295,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ118">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR118">
         <v>0.96</v>
@@ -25701,7 +25704,7 @@
         <v>3</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ120">
         <v>2.71</v>
@@ -25907,7 +25910,7 @@
         <v>0.29</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ121">
         <v>0.25</v>
@@ -26940,7 +26943,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ126">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -27427,6 +27430,418 @@
         <v>0</v>
       </c>
       <c r="BP128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7455993</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45625.39583333334</v>
+      </c>
+      <c r="F129">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>84</v>
+      </c>
+      <c r="H129" t="s">
+        <v>81</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>138</v>
+      </c>
+      <c r="P129" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q129">
+        <v>3.1</v>
+      </c>
+      <c r="R129">
+        <v>2.05</v>
+      </c>
+      <c r="S129">
+        <v>3.75</v>
+      </c>
+      <c r="T129">
+        <v>1.5</v>
+      </c>
+      <c r="U129">
+        <v>2.5</v>
+      </c>
+      <c r="V129">
+        <v>3.4</v>
+      </c>
+      <c r="W129">
+        <v>1.3</v>
+      </c>
+      <c r="X129">
+        <v>10</v>
+      </c>
+      <c r="Y129">
+        <v>1.06</v>
+      </c>
+      <c r="Z129">
+        <v>2.35</v>
+      </c>
+      <c r="AA129">
+        <v>3.25</v>
+      </c>
+      <c r="AB129">
+        <v>3.1</v>
+      </c>
+      <c r="AC129">
+        <v>1.02</v>
+      </c>
+      <c r="AD129">
+        <v>7.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.39</v>
+      </c>
+      <c r="AF129">
+        <v>2.85</v>
+      </c>
+      <c r="AG129">
+        <v>2.1</v>
+      </c>
+      <c r="AH129">
+        <v>1.7</v>
+      </c>
+      <c r="AI129">
+        <v>1.83</v>
+      </c>
+      <c r="AJ129">
+        <v>1.83</v>
+      </c>
+      <c r="AK129">
+        <v>1.33</v>
+      </c>
+      <c r="AL129">
+        <v>1.28</v>
+      </c>
+      <c r="AM129">
+        <v>1.46</v>
+      </c>
+      <c r="AN129">
+        <v>2</v>
+      </c>
+      <c r="AO129">
+        <v>1.38</v>
+      </c>
+      <c r="AP129">
+        <v>1.89</v>
+      </c>
+      <c r="AQ129">
+        <v>1.33</v>
+      </c>
+      <c r="AR129">
+        <v>1.54</v>
+      </c>
+      <c r="AS129">
+        <v>1.53</v>
+      </c>
+      <c r="AT129">
+        <v>3.07</v>
+      </c>
+      <c r="AU129">
+        <v>4</v>
+      </c>
+      <c r="AV129">
+        <v>2</v>
+      </c>
+      <c r="AW129">
+        <v>7</v>
+      </c>
+      <c r="AX129">
+        <v>8</v>
+      </c>
+      <c r="AY129">
+        <v>11</v>
+      </c>
+      <c r="AZ129">
+        <v>10</v>
+      </c>
+      <c r="BA129">
+        <v>8</v>
+      </c>
+      <c r="BB129">
+        <v>4</v>
+      </c>
+      <c r="BC129">
+        <v>12</v>
+      </c>
+      <c r="BD129">
+        <v>0</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>0</v>
+      </c>
+      <c r="BG129">
+        <v>0</v>
+      </c>
+      <c r="BH129">
+        <v>0</v>
+      </c>
+      <c r="BI129">
+        <v>0</v>
+      </c>
+      <c r="BJ129">
+        <v>0</v>
+      </c>
+      <c r="BK129">
+        <v>0</v>
+      </c>
+      <c r="BL129">
+        <v>0</v>
+      </c>
+      <c r="BM129">
+        <v>0</v>
+      </c>
+      <c r="BN129">
+        <v>0</v>
+      </c>
+      <c r="BO129">
+        <v>0</v>
+      </c>
+      <c r="BP129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7456000</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45625.5</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>77</v>
+      </c>
+      <c r="H130" t="s">
+        <v>70</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>2</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>98</v>
+      </c>
+      <c r="P130" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q130">
+        <v>6.5</v>
+      </c>
+      <c r="R130">
+        <v>2.2</v>
+      </c>
+      <c r="S130">
+        <v>2.1</v>
+      </c>
+      <c r="T130">
+        <v>1.44</v>
+      </c>
+      <c r="U130">
+        <v>2.63</v>
+      </c>
+      <c r="V130">
+        <v>3.25</v>
+      </c>
+      <c r="W130">
+        <v>1.33</v>
+      </c>
+      <c r="X130">
+        <v>9</v>
+      </c>
+      <c r="Y130">
+        <v>1.07</v>
+      </c>
+      <c r="Z130">
+        <v>5.75</v>
+      </c>
+      <c r="AA130">
+        <v>4.2</v>
+      </c>
+      <c r="AB130">
+        <v>1.53</v>
+      </c>
+      <c r="AC130">
+        <v>1.01</v>
+      </c>
+      <c r="AD130">
+        <v>8.1</v>
+      </c>
+      <c r="AE130">
+        <v>1.37</v>
+      </c>
+      <c r="AF130">
+        <v>2.95</v>
+      </c>
+      <c r="AG130">
+        <v>1.95</v>
+      </c>
+      <c r="AH130">
+        <v>1.85</v>
+      </c>
+      <c r="AI130">
+        <v>2.1</v>
+      </c>
+      <c r="AJ130">
+        <v>1.67</v>
+      </c>
+      <c r="AK130">
+        <v>1.98</v>
+      </c>
+      <c r="AL130">
+        <v>1.2</v>
+      </c>
+      <c r="AM130">
+        <v>1.14</v>
+      </c>
+      <c r="AN130">
+        <v>0.88</v>
+      </c>
+      <c r="AO130">
+        <v>1.63</v>
+      </c>
+      <c r="AP130">
+        <v>0.78</v>
+      </c>
+      <c r="AQ130">
+        <v>1.78</v>
+      </c>
+      <c r="AR130">
+        <v>1.02</v>
+      </c>
+      <c r="AS130">
+        <v>1.31</v>
+      </c>
+      <c r="AT130">
+        <v>2.33</v>
+      </c>
+      <c r="AU130">
+        <v>4</v>
+      </c>
+      <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
+        <v>1</v>
+      </c>
+      <c r="AX130">
+        <v>1</v>
+      </c>
+      <c r="AY130">
+        <v>5</v>
+      </c>
+      <c r="AZ130">
+        <v>7</v>
+      </c>
+      <c r="BA130">
+        <v>3</v>
+      </c>
+      <c r="BB130">
+        <v>4</v>
+      </c>
+      <c r="BC130">
+        <v>7</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>0</v>
+      </c>
+      <c r="BG130">
+        <v>0</v>
+      </c>
+      <c r="BH130">
+        <v>0</v>
+      </c>
+      <c r="BI130">
+        <v>0</v>
+      </c>
+      <c r="BJ130">
+        <v>0</v>
+      </c>
+      <c r="BK130">
+        <v>0</v>
+      </c>
+      <c r="BL130">
+        <v>0</v>
+      </c>
+      <c r="BM130">
+        <v>0</v>
+      </c>
+      <c r="BN130">
+        <v>0</v>
+      </c>
+      <c r="BO130">
+        <v>0</v>
+      </c>
+      <c r="BP130">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,9 @@
     <t>['32', '90+1']</t>
   </si>
   <si>
+    <t>['13', '72']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -698,6 +701,12 @@
   </si>
   <si>
     <t>['19', '37']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['85', '90']</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1936,7 +1945,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2014,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2142,7 +2151,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2220,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ6">
         <v>2.25</v>
@@ -2429,7 +2438,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2554,7 +2563,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2632,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ8">
         <v>1.75</v>
@@ -2760,7 +2769,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2841,7 +2850,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3378,7 +3387,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3584,7 +3593,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3790,7 +3799,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4486,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ17">
         <v>0.5</v>
@@ -4614,7 +4623,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4695,7 +4704,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ18">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR18">
         <v>1.14</v>
@@ -4901,7 +4910,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5026,7 +5035,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5232,7 +5241,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5310,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.78</v>
@@ -5438,7 +5447,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5644,7 +5653,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5722,10 +5731,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR23">
         <v>0.89</v>
@@ -5850,7 +5859,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6056,7 +6065,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6262,7 +6271,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6880,7 +6889,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7292,7 +7301,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7373,7 +7382,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR31">
         <v>1.39</v>
@@ -7498,7 +7507,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7785,7 +7794,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ33">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR33">
         <v>1.57</v>
@@ -7988,7 +7997,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>1.33</v>
@@ -8116,7 +8125,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8194,7 +8203,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ35">
         <v>2.25</v>
@@ -8400,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ36">
         <v>1.13</v>
@@ -8528,7 +8537,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8812,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>0.5</v>
@@ -9227,7 +9236,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR40">
         <v>1.3</v>
@@ -9352,7 +9361,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9764,7 +9773,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9970,7 +9979,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10382,7 +10391,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10588,7 +10597,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10666,7 +10675,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -10794,7 +10803,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11081,7 +11090,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ49">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR49">
         <v>1.46</v>
@@ -11412,7 +11421,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11618,7 +11627,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11696,10 +11705,10 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ52">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR52">
         <v>0.9399999999999999</v>
@@ -12030,7 +12039,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12236,7 +12245,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12314,7 +12323,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ55">
         <v>1.75</v>
@@ -12442,7 +12451,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12648,7 +12657,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12854,7 +12863,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13060,7 +13069,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13141,7 +13150,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ59">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13266,7 +13275,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13472,7 +13481,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13550,10 +13559,10 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -13678,7 +13687,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13884,7 +13893,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14090,7 +14099,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14168,7 +14177,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ64">
         <v>1.13</v>
@@ -14377,7 +14386,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR65">
         <v>2.13</v>
@@ -14708,7 +14717,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14789,7 +14798,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ67">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR67">
         <v>1.23</v>
@@ -14914,7 +14923,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15532,7 +15541,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15816,7 +15825,7 @@
         <v>0.25</v>
       </c>
       <c r="AP72">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
         <v>0.25</v>
@@ -16150,7 +16159,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16437,7 +16446,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR75">
         <v>2.04</v>
@@ -16768,7 +16777,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16974,7 +16983,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17052,7 +17061,7 @@
         <v>3</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ78">
         <v>2.71</v>
@@ -17180,7 +17189,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17386,7 +17395,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17592,7 +17601,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17673,7 +17682,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ81">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR81">
         <v>1.28</v>
@@ -18004,7 +18013,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18291,7 +18300,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ84">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR84">
         <v>1.6</v>
@@ -18494,7 +18503,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ85">
         <v>0.5</v>
@@ -18622,7 +18631,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19318,7 +19327,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19524,7 +19533,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>1.13</v>
@@ -19733,7 +19742,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR91">
         <v>2.07</v>
@@ -20270,7 +20279,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q94">
         <v>17</v>
@@ -20476,7 +20485,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20888,7 +20897,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21712,7 +21721,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -21793,7 +21802,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ101">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR101">
         <v>2.02</v>
@@ -21996,7 +22005,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ102">
         <v>1.13</v>
@@ -22330,7 +22339,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22408,7 +22417,7 @@
         <v>0.57</v>
       </c>
       <c r="AP104">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ104">
         <v>0.5</v>
@@ -22536,7 +22545,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22614,7 +22623,7 @@
         <v>0.71</v>
       </c>
       <c r="AP105">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22742,7 +22751,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -22823,7 +22832,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR106">
         <v>1.42</v>
@@ -23154,7 +23163,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23235,7 +23244,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ108">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23566,7 +23575,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23647,7 +23656,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ110">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR110">
         <v>1.81</v>
@@ -23978,7 +23987,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24059,7 +24068,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR112">
         <v>1.57</v>
@@ -24802,7 +24811,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25008,7 +25017,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25214,7 +25223,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q118">
         <v>6.5</v>
@@ -25292,7 +25301,7 @@
         <v>1.43</v>
       </c>
       <c r="AP118">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ118">
         <v>1.33</v>
@@ -25420,7 +25429,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25626,7 +25635,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -26038,7 +26047,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26244,7 +26253,7 @@
         <v>158</v>
       </c>
       <c r="P123" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q123">
         <v>1.8</v>
@@ -26862,7 +26871,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27068,7 +27077,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27274,7 +27283,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27480,7 +27489,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q129">
         <v>3.1</v>
@@ -27576,7 +27585,7 @@
         <v>4</v>
       </c>
       <c r="AV129">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW129">
         <v>7</v>
@@ -27585,10 +27594,10 @@
         <v>8</v>
       </c>
       <c r="AY129">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ129">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA129">
         <v>8</v>
@@ -27686,7 +27695,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -27791,10 +27800,10 @@
         <v>1</v>
       </c>
       <c r="AY130">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ130">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA130">
         <v>3</v>
@@ -27842,6 +27851,624 @@
         <v>0</v>
       </c>
       <c r="BP130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7455999</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45626.3125</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>73</v>
+      </c>
+      <c r="H131" t="s">
+        <v>83</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>162</v>
+      </c>
+      <c r="P131" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q131">
+        <v>3.75</v>
+      </c>
+      <c r="R131">
+        <v>1.91</v>
+      </c>
+      <c r="S131">
+        <v>3.4</v>
+      </c>
+      <c r="T131">
+        <v>1.57</v>
+      </c>
+      <c r="U131">
+        <v>2.25</v>
+      </c>
+      <c r="V131">
+        <v>3.75</v>
+      </c>
+      <c r="W131">
+        <v>1.25</v>
+      </c>
+      <c r="X131">
+        <v>13</v>
+      </c>
+      <c r="Y131">
+        <v>1.04</v>
+      </c>
+      <c r="Z131">
+        <v>3</v>
+      </c>
+      <c r="AA131">
+        <v>3</v>
+      </c>
+      <c r="AB131">
+        <v>2.55</v>
+      </c>
+      <c r="AC131">
+        <v>1.09</v>
+      </c>
+      <c r="AD131">
+        <v>6.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.49</v>
+      </c>
+      <c r="AF131">
+        <v>2.4</v>
+      </c>
+      <c r="AG131">
+        <v>2.6</v>
+      </c>
+      <c r="AH131">
+        <v>1.48</v>
+      </c>
+      <c r="AI131">
+        <v>2.2</v>
+      </c>
+      <c r="AJ131">
+        <v>1.62</v>
+      </c>
+      <c r="AK131">
+        <v>1.37</v>
+      </c>
+      <c r="AL131">
+        <v>1.31</v>
+      </c>
+      <c r="AM131">
+        <v>1.38</v>
+      </c>
+      <c r="AN131">
+        <v>0.75</v>
+      </c>
+      <c r="AO131">
+        <v>1.75</v>
+      </c>
+      <c r="AP131">
+        <v>1</v>
+      </c>
+      <c r="AQ131">
+        <v>1.56</v>
+      </c>
+      <c r="AR131">
+        <v>1.23</v>
+      </c>
+      <c r="AS131">
+        <v>1.21</v>
+      </c>
+      <c r="AT131">
+        <v>2.44</v>
+      </c>
+      <c r="AU131">
+        <v>4</v>
+      </c>
+      <c r="AV131">
+        <v>4</v>
+      </c>
+      <c r="AW131">
+        <v>2</v>
+      </c>
+      <c r="AX131">
+        <v>6</v>
+      </c>
+      <c r="AY131">
+        <v>7</v>
+      </c>
+      <c r="AZ131">
+        <v>13</v>
+      </c>
+      <c r="BA131">
+        <v>1</v>
+      </c>
+      <c r="BB131">
+        <v>6</v>
+      </c>
+      <c r="BC131">
+        <v>7</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>0</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
+      <c r="BH131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>0</v>
+      </c>
+      <c r="BJ131">
+        <v>0</v>
+      </c>
+      <c r="BK131">
+        <v>0</v>
+      </c>
+      <c r="BL131">
+        <v>0</v>
+      </c>
+      <c r="BM131">
+        <v>0</v>
+      </c>
+      <c r="BN131">
+        <v>0</v>
+      </c>
+      <c r="BO131">
+        <v>0</v>
+      </c>
+      <c r="BP131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7455998</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45626.41666666666</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>74</v>
+      </c>
+      <c r="H132" t="s">
+        <v>79</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>86</v>
+      </c>
+      <c r="P132" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q132">
+        <v>8</v>
+      </c>
+      <c r="R132">
+        <v>2.25</v>
+      </c>
+      <c r="S132">
+        <v>1.95</v>
+      </c>
+      <c r="T132">
+        <v>1.4</v>
+      </c>
+      <c r="U132">
+        <v>2.75</v>
+      </c>
+      <c r="V132">
+        <v>2.75</v>
+      </c>
+      <c r="W132">
+        <v>1.4</v>
+      </c>
+      <c r="X132">
+        <v>8</v>
+      </c>
+      <c r="Y132">
+        <v>1.08</v>
+      </c>
+      <c r="Z132">
+        <v>8</v>
+      </c>
+      <c r="AA132">
+        <v>4.33</v>
+      </c>
+      <c r="AB132">
+        <v>1.4</v>
+      </c>
+      <c r="AC132">
+        <v>1</v>
+      </c>
+      <c r="AD132">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE132">
+        <v>1.31</v>
+      </c>
+      <c r="AF132">
+        <v>3.25</v>
+      </c>
+      <c r="AG132">
+        <v>2</v>
+      </c>
+      <c r="AH132">
+        <v>1.8</v>
+      </c>
+      <c r="AI132">
+        <v>2.25</v>
+      </c>
+      <c r="AJ132">
+        <v>1.57</v>
+      </c>
+      <c r="AK132">
+        <v>2.41</v>
+      </c>
+      <c r="AL132">
+        <v>1.15</v>
+      </c>
+      <c r="AM132">
+        <v>1.07</v>
+      </c>
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
+        <v>1.63</v>
+      </c>
+      <c r="AP132">
+        <v>0.89</v>
+      </c>
+      <c r="AQ132">
+        <v>1.78</v>
+      </c>
+      <c r="AR132">
+        <v>1.31</v>
+      </c>
+      <c r="AS132">
+        <v>1.9</v>
+      </c>
+      <c r="AT132">
+        <v>3.21</v>
+      </c>
+      <c r="AU132">
+        <v>4</v>
+      </c>
+      <c r="AV132">
+        <v>5</v>
+      </c>
+      <c r="AW132">
+        <v>1</v>
+      </c>
+      <c r="AX132">
+        <v>8</v>
+      </c>
+      <c r="AY132">
+        <v>5</v>
+      </c>
+      <c r="AZ132">
+        <v>15</v>
+      </c>
+      <c r="BA132">
+        <v>4</v>
+      </c>
+      <c r="BB132">
+        <v>4</v>
+      </c>
+      <c r="BC132">
+        <v>8</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>0</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>0</v>
+      </c>
+      <c r="BJ132">
+        <v>0</v>
+      </c>
+      <c r="BK132">
+        <v>0</v>
+      </c>
+      <c r="BL132">
+        <v>0</v>
+      </c>
+      <c r="BM132">
+        <v>0</v>
+      </c>
+      <c r="BN132">
+        <v>0</v>
+      </c>
+      <c r="BO132">
+        <v>0</v>
+      </c>
+      <c r="BP132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7455994</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45626.52083333334</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>76</v>
+      </c>
+      <c r="H133" t="s">
+        <v>80</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>86</v>
+      </c>
+      <c r="P133" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q133">
+        <v>9</v>
+      </c>
+      <c r="R133">
+        <v>2.3</v>
+      </c>
+      <c r="S133">
+        <v>1.83</v>
+      </c>
+      <c r="T133">
+        <v>1.4</v>
+      </c>
+      <c r="U133">
+        <v>2.75</v>
+      </c>
+      <c r="V133">
+        <v>2.75</v>
+      </c>
+      <c r="W133">
+        <v>1.4</v>
+      </c>
+      <c r="X133">
+        <v>8</v>
+      </c>
+      <c r="Y133">
+        <v>1.08</v>
+      </c>
+      <c r="Z133">
+        <v>10</v>
+      </c>
+      <c r="AA133">
+        <v>4.2</v>
+      </c>
+      <c r="AB133">
+        <v>1.38</v>
+      </c>
+      <c r="AC133">
+        <v>1</v>
+      </c>
+      <c r="AD133">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE133">
+        <v>1.26</v>
+      </c>
+      <c r="AF133">
+        <v>3.6</v>
+      </c>
+      <c r="AG133">
+        <v>1.95</v>
+      </c>
+      <c r="AH133">
+        <v>1.85</v>
+      </c>
+      <c r="AI133">
+        <v>2.25</v>
+      </c>
+      <c r="AJ133">
+        <v>1.57</v>
+      </c>
+      <c r="AK133">
+        <v>2.7</v>
+      </c>
+      <c r="AL133">
+        <v>1.12</v>
+      </c>
+      <c r="AM133">
+        <v>1.04</v>
+      </c>
+      <c r="AN133">
+        <v>0.88</v>
+      </c>
+      <c r="AO133">
+        <v>1</v>
+      </c>
+      <c r="AP133">
+        <v>0.78</v>
+      </c>
+      <c r="AQ133">
+        <v>1.22</v>
+      </c>
+      <c r="AR133">
+        <v>1</v>
+      </c>
+      <c r="AS133">
+        <v>1.65</v>
+      </c>
+      <c r="AT133">
+        <v>2.65</v>
+      </c>
+      <c r="AU133">
+        <v>3</v>
+      </c>
+      <c r="AV133">
+        <v>8</v>
+      </c>
+      <c r="AW133">
+        <v>4</v>
+      </c>
+      <c r="AX133">
+        <v>5</v>
+      </c>
+      <c r="AY133">
+        <v>11</v>
+      </c>
+      <c r="AZ133">
+        <v>18</v>
+      </c>
+      <c r="BA133">
+        <v>5</v>
+      </c>
+      <c r="BB133">
+        <v>4</v>
+      </c>
+      <c r="BC133">
+        <v>9</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>0</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>0</v>
+      </c>
+      <c r="BJ133">
+        <v>0</v>
+      </c>
+      <c r="BK133">
+        <v>0</v>
+      </c>
+      <c r="BL133">
+        <v>0</v>
+      </c>
+      <c r="BM133">
+        <v>0</v>
+      </c>
+      <c r="BN133">
+        <v>0</v>
+      </c>
+      <c r="BO133">
+        <v>0</v>
+      </c>
+      <c r="BP133">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>['13', '72']</t>
+  </si>
+  <si>
+    <t>['39', '83']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -1068,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1611,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1817,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1945,7 +1948,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2151,7 +2154,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2232,7 +2235,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ6">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2435,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ7">
         <v>1.22</v>
@@ -2563,7 +2566,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2769,7 +2772,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3387,7 +3390,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3593,7 +3596,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3799,7 +3802,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4498,7 +4501,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR17">
         <v>1.05</v>
@@ -4623,7 +4626,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4701,7 +4704,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ18">
         <v>1.78</v>
@@ -5035,7 +5038,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5113,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5241,7 +5244,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5447,7 +5450,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5525,10 +5528,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ22">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR22">
         <v>1.4</v>
@@ -5653,7 +5656,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5859,7 +5862,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6065,7 +6068,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6271,7 +6274,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6889,7 +6892,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7301,7 +7304,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7379,7 +7382,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ31">
         <v>1.56</v>
@@ -7507,7 +7510,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7588,7 +7591,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR32">
         <v>2.6</v>
@@ -7791,7 +7794,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ33">
         <v>1.78</v>
@@ -8125,7 +8128,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8206,7 +8209,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ35">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR35">
         <v>0.91</v>
@@ -8537,7 +8540,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8615,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ37">
         <v>1.78</v>
@@ -9361,7 +9364,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9648,7 +9651,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR42">
         <v>1.54</v>
@@ -9773,7 +9776,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9979,7 +9982,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10391,7 +10394,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10597,7 +10600,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10803,7 +10806,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -10884,7 +10887,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ48">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR48">
         <v>2.49</v>
@@ -11293,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ50">
         <v>1.13</v>
@@ -11421,7 +11424,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11499,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ51">
         <v>0.63</v>
@@ -11627,7 +11630,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11911,7 +11914,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ53">
         <v>1.78</v>
@@ -12039,7 +12042,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12117,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ54">
         <v>0.25</v>
@@ -12245,7 +12248,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12451,7 +12454,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12532,7 +12535,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ56">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR56">
         <v>1.11</v>
@@ -12657,7 +12660,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12738,7 +12741,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ57">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR57">
         <v>1.32</v>
@@ -12863,7 +12866,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13069,7 +13072,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13275,7 +13278,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13353,7 +13356,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ60">
         <v>2.71</v>
@@ -13481,7 +13484,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13687,7 +13690,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13893,7 +13896,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13971,7 +13974,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ63">
         <v>1.33</v>
@@ -14099,7 +14102,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14589,7 +14592,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ66">
         <v>0.63</v>
@@ -14717,7 +14720,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14923,7 +14926,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15207,7 +15210,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ69">
         <v>0.5</v>
@@ -15416,7 +15419,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ70">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR70">
         <v>1.47</v>
@@ -15541,7 +15544,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -16034,7 +16037,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR73">
         <v>1.28</v>
@@ -16159,7 +16162,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16237,7 +16240,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ74">
         <v>1.13</v>
@@ -16652,7 +16655,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ76">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR76">
         <v>1.78</v>
@@ -16777,7 +16780,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16983,7 +16986,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17189,7 +17192,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17395,7 +17398,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17473,7 +17476,7 @@
         <v>1.8</v>
       </c>
       <c r="AP80">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ80">
         <v>1.33</v>
@@ -17601,7 +17604,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18013,7 +18016,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18631,7 +18634,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -18915,7 +18918,7 @@
         <v>2.33</v>
       </c>
       <c r="AP87">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19948,7 +19951,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ92">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR92">
         <v>1.38</v>
@@ -20279,7 +20282,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q94">
         <v>17</v>
@@ -20485,7 +20488,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20897,7 +20900,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21721,7 +21724,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22211,7 +22214,7 @@
         <v>1.67</v>
       </c>
       <c r="AP103">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ103">
         <v>1.33</v>
@@ -22339,7 +22342,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22420,7 +22423,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ104">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR104">
         <v>1.28</v>
@@ -22545,7 +22548,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22751,7 +22754,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -22829,7 +22832,7 @@
         <v>0.67</v>
       </c>
       <c r="AP106">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ106">
         <v>1.22</v>
@@ -23035,7 +23038,7 @@
         <v>1.57</v>
       </c>
       <c r="AP107">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ107">
         <v>1.75</v>
@@ -23163,7 +23166,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23447,7 +23450,7 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ109">
         <v>0.25</v>
@@ -23575,7 +23578,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23862,7 +23865,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ111">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR111">
         <v>1.07</v>
@@ -23987,7 +23990,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24811,7 +24814,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25017,7 +25020,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25223,7 +25226,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q118">
         <v>6.5</v>
@@ -25429,7 +25432,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25635,7 +25638,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -26047,7 +26050,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26253,7 +26256,7 @@
         <v>158</v>
       </c>
       <c r="P123" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q123">
         <v>1.8</v>
@@ -26871,7 +26874,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -27077,7 +27080,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27283,7 +27286,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27489,7 +27492,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q129">
         <v>3.1</v>
@@ -27695,7 +27698,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -27901,7 +27904,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28107,7 +28110,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -28206,16 +28209,16 @@
         <v>5</v>
       </c>
       <c r="AW132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX132">
         <v>8</v>
       </c>
       <c r="AY132">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ132">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA132">
         <v>4</v>
@@ -28469,6 +28472,624 @@
         <v>0</v>
       </c>
       <c r="BP133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7455997</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45627.3125</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>72</v>
+      </c>
+      <c r="H134" t="s">
+        <v>82</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>86</v>
+      </c>
+      <c r="P134" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q134">
+        <v>4.5</v>
+      </c>
+      <c r="R134">
+        <v>2.05</v>
+      </c>
+      <c r="S134">
+        <v>2.75</v>
+      </c>
+      <c r="T134">
+        <v>1.5</v>
+      </c>
+      <c r="U134">
+        <v>2.5</v>
+      </c>
+      <c r="V134">
+        <v>3.4</v>
+      </c>
+      <c r="W134">
+        <v>1.3</v>
+      </c>
+      <c r="X134">
+        <v>10</v>
+      </c>
+      <c r="Y134">
+        <v>1.06</v>
+      </c>
+      <c r="Z134">
+        <v>3.8</v>
+      </c>
+      <c r="AA134">
+        <v>3.3</v>
+      </c>
+      <c r="AB134">
+        <v>2</v>
+      </c>
+      <c r="AC134">
+        <v>1.01</v>
+      </c>
+      <c r="AD134">
+        <v>7.8</v>
+      </c>
+      <c r="AE134">
+        <v>1.38</v>
+      </c>
+      <c r="AF134">
+        <v>2.9</v>
+      </c>
+      <c r="AG134">
+        <v>2.25</v>
+      </c>
+      <c r="AH134">
+        <v>1.62</v>
+      </c>
+      <c r="AI134">
+        <v>1.91</v>
+      </c>
+      <c r="AJ134">
+        <v>1.8</v>
+      </c>
+      <c r="AK134">
+        <v>1.68</v>
+      </c>
+      <c r="AL134">
+        <v>1.26</v>
+      </c>
+      <c r="AM134">
+        <v>1.2</v>
+      </c>
+      <c r="AN134">
+        <v>0.75</v>
+      </c>
+      <c r="AO134">
+        <v>2.25</v>
+      </c>
+      <c r="AP134">
+        <v>0.67</v>
+      </c>
+      <c r="AQ134">
+        <v>2.33</v>
+      </c>
+      <c r="AR134">
+        <v>1.42</v>
+      </c>
+      <c r="AS134">
+        <v>1.52</v>
+      </c>
+      <c r="AT134">
+        <v>2.94</v>
+      </c>
+      <c r="AU134">
+        <v>2</v>
+      </c>
+      <c r="AV134">
+        <v>0</v>
+      </c>
+      <c r="AW134">
+        <v>2</v>
+      </c>
+      <c r="AX134">
+        <v>6</v>
+      </c>
+      <c r="AY134">
+        <v>6</v>
+      </c>
+      <c r="AZ134">
+        <v>6</v>
+      </c>
+      <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
+        <v>2</v>
+      </c>
+      <c r="BC134">
+        <v>5</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>0</v>
+      </c>
+      <c r="BG134">
+        <v>0</v>
+      </c>
+      <c r="BH134">
+        <v>0</v>
+      </c>
+      <c r="BI134">
+        <v>0</v>
+      </c>
+      <c r="BJ134">
+        <v>0</v>
+      </c>
+      <c r="BK134">
+        <v>0</v>
+      </c>
+      <c r="BL134">
+        <v>0</v>
+      </c>
+      <c r="BM134">
+        <v>0</v>
+      </c>
+      <c r="BN134">
+        <v>0</v>
+      </c>
+      <c r="BO134">
+        <v>0</v>
+      </c>
+      <c r="BP134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7455996</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45627.41666666666</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>71</v>
+      </c>
+      <c r="H135" t="s">
+        <v>78</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135" t="s">
+        <v>86</v>
+      </c>
+      <c r="P135" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q135">
+        <v>4</v>
+      </c>
+      <c r="R135">
+        <v>1.83</v>
+      </c>
+      <c r="S135">
+        <v>3.5</v>
+      </c>
+      <c r="T135">
+        <v>1.62</v>
+      </c>
+      <c r="U135">
+        <v>2.2</v>
+      </c>
+      <c r="V135">
+        <v>4</v>
+      </c>
+      <c r="W135">
+        <v>1.22</v>
+      </c>
+      <c r="X135">
+        <v>13</v>
+      </c>
+      <c r="Y135">
+        <v>1.04</v>
+      </c>
+      <c r="Z135">
+        <v>3</v>
+      </c>
+      <c r="AA135">
+        <v>3</v>
+      </c>
+      <c r="AB135">
+        <v>2.55</v>
+      </c>
+      <c r="AC135">
+        <v>1.11</v>
+      </c>
+      <c r="AD135">
+        <v>5.8</v>
+      </c>
+      <c r="AE135">
+        <v>1.53</v>
+      </c>
+      <c r="AF135">
+        <v>2.25</v>
+      </c>
+      <c r="AG135">
+        <v>2.7</v>
+      </c>
+      <c r="AH135">
+        <v>1.44</v>
+      </c>
+      <c r="AI135">
+        <v>2.25</v>
+      </c>
+      <c r="AJ135">
+        <v>1.57</v>
+      </c>
+      <c r="AK135">
+        <v>1.4</v>
+      </c>
+      <c r="AL135">
+        <v>1.32</v>
+      </c>
+      <c r="AM135">
+        <v>1.33</v>
+      </c>
+      <c r="AN135">
+        <v>1.25</v>
+      </c>
+      <c r="AO135">
+        <v>1</v>
+      </c>
+      <c r="AP135">
+        <v>1.22</v>
+      </c>
+      <c r="AQ135">
+        <v>1</v>
+      </c>
+      <c r="AR135">
+        <v>1.51</v>
+      </c>
+      <c r="AS135">
+        <v>1.24</v>
+      </c>
+      <c r="AT135">
+        <v>2.75</v>
+      </c>
+      <c r="AU135">
+        <v>3</v>
+      </c>
+      <c r="AV135">
+        <v>3</v>
+      </c>
+      <c r="AW135">
+        <v>2</v>
+      </c>
+      <c r="AX135">
+        <v>5</v>
+      </c>
+      <c r="AY135">
+        <v>5</v>
+      </c>
+      <c r="AZ135">
+        <v>9</v>
+      </c>
+      <c r="BA135">
+        <v>3</v>
+      </c>
+      <c r="BB135">
+        <v>6</v>
+      </c>
+      <c r="BC135">
+        <v>9</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>0</v>
+      </c>
+      <c r="BG135">
+        <v>0</v>
+      </c>
+      <c r="BH135">
+        <v>0</v>
+      </c>
+      <c r="BI135">
+        <v>0</v>
+      </c>
+      <c r="BJ135">
+        <v>0</v>
+      </c>
+      <c r="BK135">
+        <v>0</v>
+      </c>
+      <c r="BL135">
+        <v>0</v>
+      </c>
+      <c r="BM135">
+        <v>0</v>
+      </c>
+      <c r="BN135">
+        <v>0</v>
+      </c>
+      <c r="BO135">
+        <v>0</v>
+      </c>
+      <c r="BP135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7455995</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45627.52083333334</v>
+      </c>
+      <c r="F136">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>75</v>
+      </c>
+      <c r="H136" t="s">
+        <v>85</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>163</v>
+      </c>
+      <c r="P136" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q136">
+        <v>1.62</v>
+      </c>
+      <c r="R136">
+        <v>2.6</v>
+      </c>
+      <c r="S136">
+        <v>13</v>
+      </c>
+      <c r="T136">
+        <v>1.36</v>
+      </c>
+      <c r="U136">
+        <v>3</v>
+      </c>
+      <c r="V136">
+        <v>2.75</v>
+      </c>
+      <c r="W136">
+        <v>1.4</v>
+      </c>
+      <c r="X136">
+        <v>7</v>
+      </c>
+      <c r="Y136">
+        <v>1.1</v>
+      </c>
+      <c r="Z136">
+        <v>1.14</v>
+      </c>
+      <c r="AA136">
+        <v>5.9</v>
+      </c>
+      <c r="AB136">
+        <v>22</v>
+      </c>
+      <c r="AC136">
+        <v>1</v>
+      </c>
+      <c r="AD136">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE136">
+        <v>1.26</v>
+      </c>
+      <c r="AF136">
+        <v>3.65</v>
+      </c>
+      <c r="AG136">
+        <v>2</v>
+      </c>
+      <c r="AH136">
+        <v>1.72</v>
+      </c>
+      <c r="AI136">
+        <v>2.75</v>
+      </c>
+      <c r="AJ136">
+        <v>1.4</v>
+      </c>
+      <c r="AK136">
+        <v>1.04</v>
+      </c>
+      <c r="AL136">
+        <v>1.09</v>
+      </c>
+      <c r="AM136">
+        <v>2.9</v>
+      </c>
+      <c r="AN136">
+        <v>2.75</v>
+      </c>
+      <c r="AO136">
+        <v>0.5</v>
+      </c>
+      <c r="AP136">
+        <v>2.78</v>
+      </c>
+      <c r="AQ136">
+        <v>0.44</v>
+      </c>
+      <c r="AR136">
+        <v>1.82</v>
+      </c>
+      <c r="AS136">
+        <v>1.66</v>
+      </c>
+      <c r="AT136">
+        <v>3.48</v>
+      </c>
+      <c r="AU136">
+        <v>6</v>
+      </c>
+      <c r="AV136">
+        <v>4</v>
+      </c>
+      <c r="AW136">
+        <v>13</v>
+      </c>
+      <c r="AX136">
+        <v>2</v>
+      </c>
+      <c r="AY136">
+        <v>24</v>
+      </c>
+      <c r="AZ136">
+        <v>6</v>
+      </c>
+      <c r="BA136">
+        <v>5</v>
+      </c>
+      <c r="BB136">
+        <v>4</v>
+      </c>
+      <c r="BC136">
+        <v>9</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>0</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>0</v>
+      </c>
+      <c r="BJ136">
+        <v>0</v>
+      </c>
+      <c r="BK136">
+        <v>0</v>
+      </c>
+      <c r="BL136">
+        <v>0</v>
+      </c>
+      <c r="BM136">
+        <v>0</v>
+      </c>
+      <c r="BN136">
+        <v>0</v>
+      </c>
+      <c r="BO136">
+        <v>0</v>
+      </c>
+      <c r="BP136">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -505,7 +505,7 @@
     <t>['13', '72']</t>
   </si>
   <si>
-    <t>['39', '83']</t>
+    <t>['39', '82']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -28618,19 +28618,19 @@
         <v>2</v>
       </c>
       <c r="AV134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW134">
         <v>2</v>
       </c>
       <c r="AX134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY134">
         <v>6</v>
       </c>
       <c r="AZ134">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA134">
         <v>3</v>
@@ -28827,16 +28827,16 @@
         <v>3</v>
       </c>
       <c r="AW135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX135">
         <v>5</v>
       </c>
       <c r="AY135">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ135">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA135">
         <v>3</v>
@@ -29027,7 +29027,7 @@
         <v>3.48</v>
       </c>
       <c r="AU136">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV136">
         <v>4</v>
@@ -29039,7 +29039,7 @@
         <v>2</v>
       </c>
       <c r="AY136">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ136">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -506,6 +506,15 @@
   </si>
   <si>
     <t>['39', '82']</t>
+  </si>
+  <si>
+    <t>['9', '90+5']</t>
+  </si>
+  <si>
+    <t>['29', '31', '87', '89']</t>
+  </si>
+  <si>
+    <t>['7', '62', '66']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -1071,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -1948,7 +1957,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2154,7 +2163,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2566,7 +2575,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2647,7 +2656,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ8">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2772,7 +2781,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3390,7 +3399,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3468,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ12">
         <v>0.25</v>
@@ -3596,7 +3605,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3674,10 +3683,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3802,7 +3811,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4089,7 +4098,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ15">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4292,10 +4301,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>2.14</v>
@@ -4626,7 +4635,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5038,7 +5047,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5244,7 +5253,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5450,7 +5459,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5656,7 +5665,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5862,7 +5871,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5943,7 +5952,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6068,7 +6077,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6274,7 +6283,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6767,7 +6776,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ28">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR28">
         <v>1.04</v>
@@ -6892,7 +6901,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6970,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -7304,7 +7313,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7510,7 +7519,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7588,7 +7597,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ32">
         <v>0.44</v>
@@ -8128,7 +8137,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8415,7 +8424,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ36">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.12</v>
@@ -8540,7 +8549,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9364,7 +9373,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9445,7 +9454,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR41">
         <v>1.88</v>
@@ -9648,7 +9657,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ42">
         <v>0.44</v>
@@ -9776,7 +9785,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9982,7 +9991,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10266,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ45">
         <v>1.13</v>
@@ -10394,7 +10403,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10600,7 +10609,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10806,7 +10815,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -10884,7 +10893,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48">
         <v>2.33</v>
@@ -11299,7 +11308,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ50">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -11424,7 +11433,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11505,7 +11514,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ51">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR51">
         <v>1.15</v>
@@ -11630,7 +11639,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -12042,7 +12051,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12248,7 +12257,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12329,7 +12338,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ55">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR55">
         <v>1.43</v>
@@ -12454,7 +12463,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12660,7 +12669,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12866,7 +12875,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12944,7 +12953,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13072,7 +13081,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13150,7 +13159,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ59">
         <v>1.78</v>
@@ -13278,7 +13287,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13484,7 +13493,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13690,7 +13699,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13896,7 +13905,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14102,7 +14111,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14183,7 +14192,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ64">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>0.93</v>
@@ -14386,7 +14395,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ65">
         <v>1.56</v>
@@ -14595,7 +14604,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ66">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR66">
         <v>1.69</v>
@@ -14720,7 +14729,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14926,7 +14935,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15544,7 +15553,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -16162,7 +16171,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16446,7 +16455,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ75">
         <v>1.22</v>
@@ -16652,7 +16661,7 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ76">
         <v>2.33</v>
@@ -16780,7 +16789,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16986,7 +16995,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17192,7 +17201,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17273,7 +17282,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ79">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR79">
         <v>1.26</v>
@@ -17398,7 +17407,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17604,7 +17613,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18016,7 +18025,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18094,10 +18103,10 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ83">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>2.04</v>
@@ -18634,7 +18643,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -18715,7 +18724,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ86">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR86">
         <v>1.38</v>
@@ -19127,7 +19136,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -20154,7 +20163,7 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ93">
         <v>0.25</v>
@@ -20282,7 +20291,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q94">
         <v>17</v>
@@ -20488,7 +20497,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20566,7 +20575,7 @@
         <v>0.33</v>
       </c>
       <c r="AP95">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20900,7 +20909,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20981,7 +20990,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ97">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21184,7 +21193,7 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ98">
         <v>0.5</v>
@@ -21393,7 +21402,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ99">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21724,7 +21733,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22342,7 +22351,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22548,7 +22557,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22754,7 +22763,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23041,7 +23050,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ107">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23166,7 +23175,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23244,7 +23253,7 @@
         <v>1.86</v>
       </c>
       <c r="AP108">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ108">
         <v>1.56</v>
@@ -23578,7 +23587,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23656,7 +23665,7 @@
         <v>1.86</v>
       </c>
       <c r="AP110">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ110">
         <v>1.78</v>
@@ -23990,7 +23999,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24068,7 +24077,7 @@
         <v>0.71</v>
       </c>
       <c r="AP112">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ112">
         <v>1.22</v>
@@ -24483,7 +24492,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ114">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR114">
         <v>1.23</v>
@@ -24814,7 +24823,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25020,7 +25029,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25101,7 +25110,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ117">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>2.13</v>
@@ -25226,7 +25235,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q118">
         <v>6.5</v>
@@ -25432,7 +25441,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25510,7 +25519,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ119">
         <v>1.13</v>
@@ -25638,7 +25647,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -26050,7 +26059,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26256,7 +26265,7 @@
         <v>158</v>
       </c>
       <c r="P123" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q123">
         <v>1.8</v>
@@ -26543,7 +26552,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ124">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR124">
         <v>2.28</v>
@@ -26749,7 +26758,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ125">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.35</v>
@@ -26874,7 +26883,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q126">
         <v>3.6</v>
@@ -26952,7 +26961,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ126">
         <v>1.78</v>
@@ -27080,7 +27089,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27158,7 +27167,7 @@
         <v>3</v>
       </c>
       <c r="AP127">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ127">
         <v>2.71</v>
@@ -27286,7 +27295,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27492,7 +27501,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q129">
         <v>3.1</v>
@@ -27698,7 +27707,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -27904,7 +27913,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28110,7 +28119,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -29090,6 +29099,624 @@
         <v>0</v>
       </c>
       <c r="BP136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7456001</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45629.3125</v>
+      </c>
+      <c r="F137">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s">
+        <v>81</v>
+      </c>
+      <c r="H137" t="s">
+        <v>77</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>164</v>
+      </c>
+      <c r="P137" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q137">
+        <v>2.05</v>
+      </c>
+      <c r="R137">
+        <v>2.2</v>
+      </c>
+      <c r="S137">
+        <v>7.5</v>
+      </c>
+      <c r="T137">
+        <v>1.44</v>
+      </c>
+      <c r="U137">
+        <v>2.63</v>
+      </c>
+      <c r="V137">
+        <v>3.25</v>
+      </c>
+      <c r="W137">
+        <v>1.33</v>
+      </c>
+      <c r="X137">
+        <v>10</v>
+      </c>
+      <c r="Y137">
+        <v>1.06</v>
+      </c>
+      <c r="Z137">
+        <v>1.45</v>
+      </c>
+      <c r="AA137">
+        <v>4.33</v>
+      </c>
+      <c r="AB137">
+        <v>7</v>
+      </c>
+      <c r="AC137">
+        <v>1.03</v>
+      </c>
+      <c r="AD137">
+        <v>9</v>
+      </c>
+      <c r="AE137">
+        <v>1.3</v>
+      </c>
+      <c r="AF137">
+        <v>3.35</v>
+      </c>
+      <c r="AG137">
+        <v>2.05</v>
+      </c>
+      <c r="AH137">
+        <v>1.75</v>
+      </c>
+      <c r="AI137">
+        <v>2.25</v>
+      </c>
+      <c r="AJ137">
+        <v>1.57</v>
+      </c>
+      <c r="AK137">
+        <v>1.11</v>
+      </c>
+      <c r="AL137">
+        <v>1.18</v>
+      </c>
+      <c r="AM137">
+        <v>2.1</v>
+      </c>
+      <c r="AN137">
+        <v>0.63</v>
+      </c>
+      <c r="AO137">
+        <v>1.13</v>
+      </c>
+      <c r="AP137">
+        <v>0.89</v>
+      </c>
+      <c r="AQ137">
+        <v>1</v>
+      </c>
+      <c r="AR137">
+        <v>1.6</v>
+      </c>
+      <c r="AS137">
+        <v>1.19</v>
+      </c>
+      <c r="AT137">
+        <v>2.79</v>
+      </c>
+      <c r="AU137">
+        <v>7</v>
+      </c>
+      <c r="AV137">
+        <v>3</v>
+      </c>
+      <c r="AW137">
+        <v>13</v>
+      </c>
+      <c r="AX137">
+        <v>6</v>
+      </c>
+      <c r="AY137">
+        <v>26</v>
+      </c>
+      <c r="AZ137">
+        <v>10</v>
+      </c>
+      <c r="BA137">
+        <v>3</v>
+      </c>
+      <c r="BB137">
+        <v>1</v>
+      </c>
+      <c r="BC137">
+        <v>4</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>0</v>
+      </c>
+      <c r="BG137">
+        <v>0</v>
+      </c>
+      <c r="BH137">
+        <v>0</v>
+      </c>
+      <c r="BI137">
+        <v>0</v>
+      </c>
+      <c r="BJ137">
+        <v>0</v>
+      </c>
+      <c r="BK137">
+        <v>0</v>
+      </c>
+      <c r="BL137">
+        <v>0</v>
+      </c>
+      <c r="BM137">
+        <v>0</v>
+      </c>
+      <c r="BN137">
+        <v>0</v>
+      </c>
+      <c r="BO137">
+        <v>0</v>
+      </c>
+      <c r="BP137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7456002</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45629.41666666666</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>70</v>
+      </c>
+      <c r="H138" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>165</v>
+      </c>
+      <c r="P138" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q138">
+        <v>1.91</v>
+      </c>
+      <c r="R138">
+        <v>2.2</v>
+      </c>
+      <c r="S138">
+        <v>9.5</v>
+      </c>
+      <c r="T138">
+        <v>1.36</v>
+      </c>
+      <c r="U138">
+        <v>3</v>
+      </c>
+      <c r="V138">
+        <v>2.75</v>
+      </c>
+      <c r="W138">
+        <v>1.4</v>
+      </c>
+      <c r="X138">
+        <v>7</v>
+      </c>
+      <c r="Y138">
+        <v>1.1</v>
+      </c>
+      <c r="Z138">
+        <v>1.36</v>
+      </c>
+      <c r="AA138">
+        <v>4.5</v>
+      </c>
+      <c r="AB138">
+        <v>9</v>
+      </c>
+      <c r="AC138">
+        <v>1.01</v>
+      </c>
+      <c r="AD138">
+        <v>11</v>
+      </c>
+      <c r="AE138">
+        <v>1.27</v>
+      </c>
+      <c r="AF138">
+        <v>3.55</v>
+      </c>
+      <c r="AG138">
+        <v>2.1</v>
+      </c>
+      <c r="AH138">
+        <v>1.7</v>
+      </c>
+      <c r="AI138">
+        <v>2.63</v>
+      </c>
+      <c r="AJ138">
+        <v>1.44</v>
+      </c>
+      <c r="AK138">
+        <v>1.05</v>
+      </c>
+      <c r="AL138">
+        <v>1.11</v>
+      </c>
+      <c r="AM138">
+        <v>2.75</v>
+      </c>
+      <c r="AN138">
+        <v>2.25</v>
+      </c>
+      <c r="AO138">
+        <v>0.63</v>
+      </c>
+      <c r="AP138">
+        <v>2.33</v>
+      </c>
+      <c r="AQ138">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR138">
+        <v>1.7</v>
+      </c>
+      <c r="AS138">
+        <v>1.29</v>
+      </c>
+      <c r="AT138">
+        <v>2.99</v>
+      </c>
+      <c r="AU138">
+        <v>6</v>
+      </c>
+      <c r="AV138">
+        <v>3</v>
+      </c>
+      <c r="AW138">
+        <v>11</v>
+      </c>
+      <c r="AX138">
+        <v>1</v>
+      </c>
+      <c r="AY138">
+        <v>21</v>
+      </c>
+      <c r="AZ138">
+        <v>8</v>
+      </c>
+      <c r="BA138">
+        <v>7</v>
+      </c>
+      <c r="BB138">
+        <v>4</v>
+      </c>
+      <c r="BC138">
+        <v>11</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>0</v>
+      </c>
+      <c r="BG138">
+        <v>0</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>0</v>
+      </c>
+      <c r="BJ138">
+        <v>0</v>
+      </c>
+      <c r="BK138">
+        <v>0</v>
+      </c>
+      <c r="BL138">
+        <v>0</v>
+      </c>
+      <c r="BM138">
+        <v>0</v>
+      </c>
+      <c r="BN138">
+        <v>0</v>
+      </c>
+      <c r="BO138">
+        <v>0</v>
+      </c>
+      <c r="BP138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7456008</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45629.52083333334</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>80</v>
+      </c>
+      <c r="H139" t="s">
+        <v>84</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139" t="s">
+        <v>166</v>
+      </c>
+      <c r="P139" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q139">
+        <v>2.05</v>
+      </c>
+      <c r="R139">
+        <v>2.3</v>
+      </c>
+      <c r="S139">
+        <v>6.5</v>
+      </c>
+      <c r="T139">
+        <v>1.4</v>
+      </c>
+      <c r="U139">
+        <v>2.75</v>
+      </c>
+      <c r="V139">
+        <v>3</v>
+      </c>
+      <c r="W139">
+        <v>1.36</v>
+      </c>
+      <c r="X139">
+        <v>8</v>
+      </c>
+      <c r="Y139">
+        <v>1.08</v>
+      </c>
+      <c r="Z139">
+        <v>1.48</v>
+      </c>
+      <c r="AA139">
+        <v>4.33</v>
+      </c>
+      <c r="AB139">
+        <v>6.25</v>
+      </c>
+      <c r="AC139">
+        <v>1.02</v>
+      </c>
+      <c r="AD139">
+        <v>7.3</v>
+      </c>
+      <c r="AE139">
+        <v>1.3</v>
+      </c>
+      <c r="AF139">
+        <v>3.35</v>
+      </c>
+      <c r="AG139">
+        <v>1.85</v>
+      </c>
+      <c r="AH139">
+        <v>1.95</v>
+      </c>
+      <c r="AI139">
+        <v>2</v>
+      </c>
+      <c r="AJ139">
+        <v>1.73</v>
+      </c>
+      <c r="AK139">
+        <v>1.12</v>
+      </c>
+      <c r="AL139">
+        <v>1.19</v>
+      </c>
+      <c r="AM139">
+        <v>2.08</v>
+      </c>
+      <c r="AN139">
+        <v>1.38</v>
+      </c>
+      <c r="AO139">
+        <v>1.75</v>
+      </c>
+      <c r="AP139">
+        <v>1.56</v>
+      </c>
+      <c r="AQ139">
+        <v>1.56</v>
+      </c>
+      <c r="AR139">
+        <v>2.1</v>
+      </c>
+      <c r="AS139">
+        <v>1.23</v>
+      </c>
+      <c r="AT139">
+        <v>3.33</v>
+      </c>
+      <c r="AU139">
+        <v>15</v>
+      </c>
+      <c r="AV139">
+        <v>2</v>
+      </c>
+      <c r="AW139">
+        <v>14</v>
+      </c>
+      <c r="AX139">
+        <v>5</v>
+      </c>
+      <c r="AY139">
+        <v>40</v>
+      </c>
+      <c r="AZ139">
+        <v>9</v>
+      </c>
+      <c r="BA139">
+        <v>16</v>
+      </c>
+      <c r="BB139">
+        <v>3</v>
+      </c>
+      <c r="BC139">
+        <v>19</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>0</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>0</v>
+      </c>
+      <c r="BJ139">
+        <v>0</v>
+      </c>
+      <c r="BK139">
+        <v>0</v>
+      </c>
+      <c r="BL139">
+        <v>0</v>
+      </c>
+      <c r="BM139">
+        <v>0</v>
+      </c>
+      <c r="BN139">
+        <v>0</v>
+      </c>
+      <c r="BO139">
+        <v>0</v>
+      </c>
+      <c r="BP139">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -1465,13 +1465,13 @@
         <v>11</v>
       </c>
       <c r="BA2">
+        <v>9</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
         <v>10</v>
-      </c>
-      <c r="BB2">
-        <v>1</v>
-      </c>
-      <c r="BC2">
-        <v>11</v>
       </c>
       <c r="BD2">
         <v>0</v>
@@ -1877,13 +1877,13 @@
         <v>10</v>
       </c>
       <c r="BA4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB4">
         <v>9</v>
       </c>
       <c r="BC4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>6</v>
       </c>
       <c r="BB6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD6">
         <v>2.45</v>
@@ -12589,13 +12589,13 @@
         <v>17</v>
       </c>
       <c r="BA56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB56">
         <v>5</v>
       </c>
       <c r="BC56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD56">
         <v>0</v>
@@ -13001,13 +13001,13 @@
         <v>14</v>
       </c>
       <c r="BA58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB58">
         <v>5</v>
       </c>
       <c r="BC58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD58">
         <v>0</v>
@@ -21447,13 +21447,13 @@
         <v>5</v>
       </c>
       <c r="BA99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC99">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD99">
         <v>0</v>
@@ -22477,13 +22477,13 @@
         <v>12</v>
       </c>
       <c r="BA104">
+        <v>10</v>
+      </c>
+      <c r="BB104">
         <v>9</v>
       </c>
-      <c r="BB104">
-        <v>8</v>
-      </c>
       <c r="BC104">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD104">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,15 @@
     <t>['56']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['25', '45']</t>
+  </si>
+  <si>
+    <t>['57', '88']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -539,9 +548,6 @@
   </si>
   <si>
     <t>['51']</t>
-  </si>
-  <si>
-    <t>['83']</t>
   </si>
   <si>
     <t>['41', '72']</t>
@@ -734,6 +740,15 @@
   </si>
   <si>
     <t>['60', '82']</t>
+  </si>
+  <si>
+    <t>['6', '65']</t>
+  </si>
+  <si>
+    <t>['37', '42', '70']</t>
+  </si>
+  <si>
+    <t>['27', '39']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1435,7 +1450,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1465,13 +1480,13 @@
         <v>11</v>
       </c>
       <c r="BA2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB2">
         <v>1</v>
       </c>
       <c r="BC2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD2">
         <v>0</v>
@@ -1844,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1877,13 +1892,13 @@
         <v>10</v>
       </c>
       <c r="BA4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB4">
         <v>9</v>
       </c>
       <c r="BC4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -1972,7 +1987,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2178,7 +2193,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2256,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6">
         <v>2.33</v>
@@ -2292,10 +2307,10 @@
         <v>6</v>
       </c>
       <c r="BB6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD6">
         <v>2.45</v>
@@ -2590,7 +2605,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2796,7 +2811,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2877,7 +2892,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ9">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3414,7 +3429,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3492,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>0.22</v>
@@ -3620,7 +3635,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3826,7 +3841,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4650,7 +4665,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4728,7 +4743,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ18">
         <v>1.78</v>
@@ -5062,7 +5077,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>1.91</v>
@@ -5268,7 +5283,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5349,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR21">
         <v>0.9</v>
@@ -5474,7 +5489,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5680,7 +5695,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5758,10 +5773,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR23">
         <v>0.91</v>
@@ -5886,7 +5901,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6092,7 +6107,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6298,7 +6313,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6916,7 +6931,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7328,7 +7343,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7409,7 +7424,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ31">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR31">
         <v>1.36</v>
@@ -7534,7 +7549,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7612,7 +7627,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>0.44</v>
@@ -8027,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR34">
         <v>0.89</v>
@@ -8152,7 +8167,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>8.800000000000001</v>
@@ -8436,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8564,7 +8579,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8642,10 +8657,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ37">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR37">
         <v>1.15</v>
@@ -9388,7 +9403,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>2.38</v>
@@ -9800,7 +9815,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10006,7 +10021,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10418,7 +10433,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10624,7 +10639,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10702,10 +10717,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR47">
         <v>1.32</v>
@@ -10830,7 +10845,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
@@ -10908,7 +10923,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
         <v>2.33</v>
@@ -11448,7 +11463,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11526,7 +11541,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ51">
         <v>0.5600000000000001</v>
@@ -11654,7 +11669,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>5.5</v>
@@ -11735,7 +11750,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ52">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR52">
         <v>0.93</v>
@@ -11941,7 +11956,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ53">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR53">
         <v>1.4</v>
@@ -12066,7 +12081,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12144,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ54">
         <v>0.22</v>
@@ -12350,7 +12365,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ55">
         <v>1.56</v>
@@ -12478,7 +12493,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12684,7 +12699,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12890,7 +12905,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13096,7 +13111,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13302,7 +13317,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13508,7 +13523,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -13714,7 +13729,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13920,7 +13935,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -13998,10 +14013,10 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR63">
         <v>1.29</v>
@@ -14126,7 +14141,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14410,10 +14425,10 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR65">
         <v>1.93</v>
@@ -14744,7 +14759,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14950,7 +14965,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15031,7 +15046,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ68">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR68">
         <v>1.26</v>
@@ -15568,7 +15583,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -15649,7 +15664,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -16186,7 +16201,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16264,7 +16279,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16804,7 +16819,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17010,7 +17025,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17088,7 +17103,7 @@
         <v>3</v>
       </c>
       <c r="AP78">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ78">
         <v>2.75</v>
@@ -17216,7 +17231,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17422,7 +17437,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17503,7 +17518,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR80">
         <v>1.54</v>
@@ -17628,7 +17643,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17709,7 +17724,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ81">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -17915,7 +17930,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ82">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR82">
         <v>1.21</v>
@@ -18040,7 +18055,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18118,7 +18133,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18658,7 +18673,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19354,7 +19369,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ89">
         <v>0.89</v>
@@ -20306,7 +20321,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20512,7 +20527,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20924,7 +20939,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21208,7 +21223,7 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>0.44</v>
@@ -21623,7 +21638,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ100">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR100">
         <v>1.22</v>
@@ -21748,7 +21763,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -21829,7 +21844,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ101">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR101">
         <v>1.85</v>
@@ -22241,7 +22256,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ103">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR103">
         <v>1.72</v>
@@ -22366,7 +22381,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22444,7 +22459,7 @@
         <v>0.57</v>
       </c>
       <c r="AP104">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ104">
         <v>0.44</v>
@@ -22572,7 +22587,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22778,7 +22793,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -22856,7 +22871,7 @@
         <v>0.67</v>
       </c>
       <c r="AP106">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ106">
         <v>1.22</v>
@@ -23190,7 +23205,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23271,7 +23286,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ108">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR108">
         <v>1.48</v>
@@ -23602,7 +23617,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24014,7 +24029,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24838,7 +24853,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -24919,7 +24934,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ116">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR116">
         <v>1.24</v>
@@ -25044,7 +25059,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25250,7 +25265,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25331,7 +25346,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ118">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR118">
         <v>0.95</v>
@@ -25456,7 +25471,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25534,7 +25549,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -25662,7 +25677,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26074,7 +26089,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26280,7 +26295,7 @@
         <v>158</v>
       </c>
       <c r="P123" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26898,7 +26913,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -26979,7 +26994,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ126">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27104,7 +27119,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27182,7 +27197,7 @@
         <v>3</v>
       </c>
       <c r="AP127">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
         <v>2.75</v>
@@ -27310,7 +27325,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27516,7 +27531,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27597,7 +27612,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ129">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR129">
         <v>1.45</v>
@@ -27722,7 +27737,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -27803,7 +27818,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ130">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR130">
         <v>1.03</v>
@@ -27928,7 +27943,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28009,7 +28024,7 @@
         <v>1</v>
       </c>
       <c r="AQ131">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR131">
         <v>1.16</v>
@@ -28134,7 +28149,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -28212,7 +28227,7 @@
         <v>1.63</v>
       </c>
       <c r="AP132">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ132">
         <v>1.78</v>
@@ -28624,7 +28639,7 @@
         <v>2.25</v>
       </c>
       <c r="AP134">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ134">
         <v>2.33</v>
@@ -29654,7 +29669,7 @@
         <v>1.75</v>
       </c>
       <c r="AP139">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
         <v>1.56</v>
@@ -29782,7 +29797,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -29988,7 +30003,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30194,7 +30209,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30400,7 +30415,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -30762,6 +30777,624 @@
         <v>0</v>
       </c>
       <c r="BP144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7762743</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45633.3125</v>
+      </c>
+      <c r="F145">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>72</v>
+      </c>
+      <c r="H145" t="s">
+        <v>83</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>171</v>
+      </c>
+      <c r="P145" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q145">
+        <v>3.75</v>
+      </c>
+      <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
+        <v>3.25</v>
+      </c>
+      <c r="T145">
+        <v>1.53</v>
+      </c>
+      <c r="U145">
+        <v>2.38</v>
+      </c>
+      <c r="V145">
+        <v>3.5</v>
+      </c>
+      <c r="W145">
+        <v>1.29</v>
+      </c>
+      <c r="X145">
+        <v>11</v>
+      </c>
+      <c r="Y145">
+        <v>1.05</v>
+      </c>
+      <c r="Z145">
+        <v>3</v>
+      </c>
+      <c r="AA145">
+        <v>3.25</v>
+      </c>
+      <c r="AB145">
+        <v>2.45</v>
+      </c>
+      <c r="AC145">
+        <v>1.05</v>
+      </c>
+      <c r="AD145">
+        <v>5.95</v>
+      </c>
+      <c r="AE145">
+        <v>1.44</v>
+      </c>
+      <c r="AF145">
+        <v>2.7</v>
+      </c>
+      <c r="AG145">
+        <v>2.35</v>
+      </c>
+      <c r="AH145">
+        <v>1.57</v>
+      </c>
+      <c r="AI145">
+        <v>2</v>
+      </c>
+      <c r="AJ145">
+        <v>1.73</v>
+      </c>
+      <c r="AK145">
+        <v>1.33</v>
+      </c>
+      <c r="AL145">
+        <v>1.29</v>
+      </c>
+      <c r="AM145">
+        <v>1.44</v>
+      </c>
+      <c r="AN145">
+        <v>0.67</v>
+      </c>
+      <c r="AO145">
+        <v>1.56</v>
+      </c>
+      <c r="AP145">
+        <v>0.6</v>
+      </c>
+      <c r="AQ145">
+        <v>1.7</v>
+      </c>
+      <c r="AR145">
+        <v>1.27</v>
+      </c>
+      <c r="AS145">
+        <v>1.2</v>
+      </c>
+      <c r="AT145">
+        <v>2.47</v>
+      </c>
+      <c r="AU145">
+        <v>3</v>
+      </c>
+      <c r="AV145">
+        <v>4</v>
+      </c>
+      <c r="AW145">
+        <v>8</v>
+      </c>
+      <c r="AX145">
+        <v>3</v>
+      </c>
+      <c r="AY145">
+        <v>15</v>
+      </c>
+      <c r="AZ145">
+        <v>10</v>
+      </c>
+      <c r="BA145">
+        <v>7</v>
+      </c>
+      <c r="BB145">
+        <v>4</v>
+      </c>
+      <c r="BC145">
+        <v>11</v>
+      </c>
+      <c r="BD145">
+        <v>0</v>
+      </c>
+      <c r="BE145">
+        <v>0</v>
+      </c>
+      <c r="BF145">
+        <v>0</v>
+      </c>
+      <c r="BG145">
+        <v>0</v>
+      </c>
+      <c r="BH145">
+        <v>0</v>
+      </c>
+      <c r="BI145">
+        <v>0</v>
+      </c>
+      <c r="BJ145">
+        <v>0</v>
+      </c>
+      <c r="BK145">
+        <v>0</v>
+      </c>
+      <c r="BL145">
+        <v>0</v>
+      </c>
+      <c r="BM145">
+        <v>0</v>
+      </c>
+      <c r="BN145">
+        <v>0</v>
+      </c>
+      <c r="BO145">
+        <v>0</v>
+      </c>
+      <c r="BP145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7762744</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45633.41666666666</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>74</v>
+      </c>
+      <c r="H146" t="s">
+        <v>70</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>2</v>
+      </c>
+      <c r="K146">
+        <v>4</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>3</v>
+      </c>
+      <c r="N146">
+        <v>5</v>
+      </c>
+      <c r="O146" t="s">
+        <v>172</v>
+      </c>
+      <c r="P146" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q146">
+        <v>7.5</v>
+      </c>
+      <c r="R146">
+        <v>2.1</v>
+      </c>
+      <c r="S146">
+        <v>2.1</v>
+      </c>
+      <c r="T146">
+        <v>1.5</v>
+      </c>
+      <c r="U146">
+        <v>2.5</v>
+      </c>
+      <c r="V146">
+        <v>3.4</v>
+      </c>
+      <c r="W146">
+        <v>1.3</v>
+      </c>
+      <c r="X146">
+        <v>10</v>
+      </c>
+      <c r="Y146">
+        <v>1.06</v>
+      </c>
+      <c r="Z146">
+        <v>6.5</v>
+      </c>
+      <c r="AA146">
+        <v>4.2</v>
+      </c>
+      <c r="AB146">
+        <v>1.5</v>
+      </c>
+      <c r="AC146">
+        <v>1.05</v>
+      </c>
+      <c r="AD146">
+        <v>6.15</v>
+      </c>
+      <c r="AE146">
+        <v>1.41</v>
+      </c>
+      <c r="AF146">
+        <v>2.75</v>
+      </c>
+      <c r="AG146">
+        <v>2.2</v>
+      </c>
+      <c r="AH146">
+        <v>1.65</v>
+      </c>
+      <c r="AI146">
+        <v>2.5</v>
+      </c>
+      <c r="AJ146">
+        <v>1.5</v>
+      </c>
+      <c r="AK146">
+        <v>2.03</v>
+      </c>
+      <c r="AL146">
+        <v>1.21</v>
+      </c>
+      <c r="AM146">
+        <v>1.11</v>
+      </c>
+      <c r="AN146">
+        <v>0.89</v>
+      </c>
+      <c r="AO146">
+        <v>1.78</v>
+      </c>
+      <c r="AP146">
+        <v>0.8</v>
+      </c>
+      <c r="AQ146">
+        <v>1.9</v>
+      </c>
+      <c r="AR146">
+        <v>1.29</v>
+      </c>
+      <c r="AS146">
+        <v>1.31</v>
+      </c>
+      <c r="AT146">
+        <v>2.6</v>
+      </c>
+      <c r="AU146">
+        <v>3</v>
+      </c>
+      <c r="AV146">
+        <v>2</v>
+      </c>
+      <c r="AW146">
+        <v>4</v>
+      </c>
+      <c r="AX146">
+        <v>13</v>
+      </c>
+      <c r="AY146">
+        <v>7</v>
+      </c>
+      <c r="AZ146">
+        <v>15</v>
+      </c>
+      <c r="BA146">
+        <v>5</v>
+      </c>
+      <c r="BB146">
+        <v>7</v>
+      </c>
+      <c r="BC146">
+        <v>12</v>
+      </c>
+      <c r="BD146">
+        <v>5.05</v>
+      </c>
+      <c r="BE146">
+        <v>7.9</v>
+      </c>
+      <c r="BF146">
+        <v>1.28</v>
+      </c>
+      <c r="BG146">
+        <v>1.24</v>
+      </c>
+      <c r="BH146">
+        <v>3.22</v>
+      </c>
+      <c r="BI146">
+        <v>1.48</v>
+      </c>
+      <c r="BJ146">
+        <v>2.33</v>
+      </c>
+      <c r="BK146">
+        <v>1.87</v>
+      </c>
+      <c r="BL146">
+        <v>1.83</v>
+      </c>
+      <c r="BM146">
+        <v>2.38</v>
+      </c>
+      <c r="BN146">
+        <v>1.46</v>
+      </c>
+      <c r="BO146">
+        <v>3.14</v>
+      </c>
+      <c r="BP146">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7762738</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45633.52083333334</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>80</v>
+      </c>
+      <c r="H147" t="s">
+        <v>81</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>2</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>173</v>
+      </c>
+      <c r="P147" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q147">
+        <v>2</v>
+      </c>
+      <c r="R147">
+        <v>2.38</v>
+      </c>
+      <c r="S147">
+        <v>6</v>
+      </c>
+      <c r="T147">
+        <v>1.36</v>
+      </c>
+      <c r="U147">
+        <v>3</v>
+      </c>
+      <c r="V147">
+        <v>2.75</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>7</v>
+      </c>
+      <c r="Y147">
+        <v>1.1</v>
+      </c>
+      <c r="Z147">
+        <v>1.48</v>
+      </c>
+      <c r="AA147">
+        <v>4.2</v>
+      </c>
+      <c r="AB147">
+        <v>7</v>
+      </c>
+      <c r="AC147">
+        <v>1</v>
+      </c>
+      <c r="AD147">
+        <v>8.1</v>
+      </c>
+      <c r="AE147">
+        <v>1.31</v>
+      </c>
+      <c r="AF147">
+        <v>3.25</v>
+      </c>
+      <c r="AG147">
+        <v>1.73</v>
+      </c>
+      <c r="AH147">
+        <v>2.08</v>
+      </c>
+      <c r="AI147">
+        <v>1.83</v>
+      </c>
+      <c r="AJ147">
+        <v>1.83</v>
+      </c>
+      <c r="AK147">
+        <v>1.12</v>
+      </c>
+      <c r="AL147">
+        <v>1.19</v>
+      </c>
+      <c r="AM147">
+        <v>2.05</v>
+      </c>
+      <c r="AN147">
+        <v>1.56</v>
+      </c>
+      <c r="AO147">
+        <v>1.33</v>
+      </c>
+      <c r="AP147">
+        <v>1.5</v>
+      </c>
+      <c r="AQ147">
+        <v>1.3</v>
+      </c>
+      <c r="AR147">
+        <v>2.12</v>
+      </c>
+      <c r="AS147">
+        <v>1.52</v>
+      </c>
+      <c r="AT147">
+        <v>3.64</v>
+      </c>
+      <c r="AU147">
+        <v>9</v>
+      </c>
+      <c r="AV147">
+        <v>4</v>
+      </c>
+      <c r="AW147">
+        <v>19</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+      <c r="AY147">
+        <v>28</v>
+      </c>
+      <c r="AZ147">
+        <v>8</v>
+      </c>
+      <c r="BA147">
+        <v>16</v>
+      </c>
+      <c r="BB147">
+        <v>5</v>
+      </c>
+      <c r="BC147">
+        <v>21</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>0</v>
+      </c>
+      <c r="BG147">
+        <v>0</v>
+      </c>
+      <c r="BH147">
+        <v>0</v>
+      </c>
+      <c r="BI147">
+        <v>0</v>
+      </c>
+      <c r="BJ147">
+        <v>0</v>
+      </c>
+      <c r="BK147">
+        <v>0</v>
+      </c>
+      <c r="BL147">
+        <v>0</v>
+      </c>
+      <c r="BM147">
+        <v>0</v>
+      </c>
+      <c r="BN147">
+        <v>0</v>
+      </c>
+      <c r="BO147">
+        <v>0</v>
+      </c>
+      <c r="BP147">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,12 @@
     <t>['57', '88']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['12', '69', '80']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -749,6 +755,12 @@
   </si>
   <si>
     <t>['27', '39']</t>
+  </si>
+  <si>
+    <t>['8', '82']</t>
+  </si>
+  <si>
+    <t>['1', '23']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP147"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1653,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ3">
         <v>0.44</v>
@@ -1987,7 +1999,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2065,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ5">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2193,7 +2205,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2274,7 +2286,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ6">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2477,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ7">
         <v>1.22</v>
@@ -2605,7 +2617,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2811,7 +2823,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3635,7 +3647,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3841,7 +3853,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4334,7 +4346,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>2.14</v>
@@ -4665,7 +4677,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4746,7 +4758,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ18">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR18">
         <v>1.14</v>
@@ -5077,7 +5089,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>1.91</v>
@@ -5155,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5283,7 +5295,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5361,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ21">
         <v>1.9</v>
@@ -5489,7 +5501,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5567,10 +5579,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ22">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR22">
         <v>1.34</v>
@@ -5695,7 +5707,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5901,7 +5913,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6107,7 +6119,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6313,7 +6325,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6931,7 +6943,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7343,7 +7355,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7421,7 +7433,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ31">
         <v>1.7</v>
@@ -7549,7 +7561,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7833,10 +7845,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ33">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -8039,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ34">
         <v>1.3</v>
@@ -8167,7 +8179,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>8.800000000000001</v>
@@ -8248,7 +8260,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ35">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR35">
         <v>0.9399999999999999</v>
@@ -8454,7 +8466,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8579,7 +8591,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8863,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ38">
         <v>0.44</v>
@@ -9403,7 +9415,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>2.38</v>
@@ -9815,7 +9827,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10021,7 +10033,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10433,7 +10445,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10639,7 +10651,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10845,7 +10857,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
@@ -10926,7 +10938,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR48">
         <v>2.19</v>
@@ -11132,7 +11144,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ49">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -11335,10 +11347,10 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR50">
         <v>1.44</v>
@@ -11463,7 +11475,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11669,7 +11681,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>5.5</v>
@@ -11953,7 +11965,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ53">
         <v>1.9</v>
@@ -12081,7 +12093,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12493,7 +12505,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12699,7 +12711,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12780,7 +12792,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ57">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR57">
         <v>1.15</v>
@@ -12905,7 +12917,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13111,7 +13123,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13192,7 +13204,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ59">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13317,7 +13329,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13395,7 +13407,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ60">
         <v>2.75</v>
@@ -13523,7 +13535,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -13601,7 +13613,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ61">
         <v>1.22</v>
@@ -13729,7 +13741,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13935,7 +13947,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14141,7 +14153,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14222,7 +14234,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR64">
         <v>0.92</v>
@@ -14631,7 +14643,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ66">
         <v>0.5600000000000001</v>
@@ -14759,7 +14771,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14840,7 +14852,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ67">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR67">
         <v>1.17</v>
@@ -14965,7 +14977,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15249,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ69">
         <v>0.44</v>
@@ -15458,7 +15470,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ70">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR70">
         <v>1.49</v>
@@ -15583,7 +15595,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -15867,7 +15879,7 @@
         <v>0.25</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ72">
         <v>0.22</v>
@@ -16201,7 +16213,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16694,7 +16706,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ76">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -16819,7 +16831,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17025,7 +17037,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17231,7 +17243,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17437,7 +17449,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17515,7 +17527,7 @@
         <v>1.8</v>
       </c>
       <c r="AP80">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ80">
         <v>1.3</v>
@@ -17643,7 +17655,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18055,7 +18067,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18136,7 +18148,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR83">
         <v>1.8</v>
@@ -18342,7 +18354,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ84">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR84">
         <v>1.5</v>
@@ -18673,7 +18685,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -18957,7 +18969,7 @@
         <v>2.33</v>
       </c>
       <c r="AP87">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ87">
         <v>0.89</v>
@@ -19575,7 +19587,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -20321,7 +20333,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20527,7 +20539,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20939,7 +20951,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21432,7 +21444,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR99">
         <v>1.34</v>
@@ -21763,7 +21775,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22253,7 +22265,7 @@
         <v>1.67</v>
       </c>
       <c r="AP103">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ103">
         <v>1.3</v>
@@ -22381,7 +22393,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22587,7 +22599,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22665,7 +22677,7 @@
         <v>0.71</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22793,7 +22805,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23077,7 +23089,7 @@
         <v>1.57</v>
       </c>
       <c r="AP107">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ107">
         <v>1.56</v>
@@ -23205,7 +23217,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23489,7 +23501,7 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ109">
         <v>0.22</v>
@@ -23617,7 +23629,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23698,7 +23710,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ110">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR110">
         <v>1.77</v>
@@ -23904,7 +23916,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ111">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR111">
         <v>1.08</v>
@@ -24029,7 +24041,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24853,7 +24865,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25059,7 +25071,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25140,7 +25152,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR117">
         <v>1.99</v>
@@ -25265,7 +25277,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25471,7 +25483,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25677,7 +25689,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26089,7 +26101,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26295,7 +26307,7 @@
         <v>158</v>
       </c>
       <c r="P123" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26788,7 +26800,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR125">
         <v>1.25</v>
@@ -26913,7 +26925,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27119,7 +27131,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27325,7 +27337,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27531,7 +27543,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27737,7 +27749,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -27943,7 +27955,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28021,7 +28033,7 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ131">
         <v>1.7</v>
@@ -28149,7 +28161,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -28230,7 +28242,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ132">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR132">
         <v>1.32</v>
@@ -28642,7 +28654,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ134">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR134">
         <v>1.33</v>
@@ -28845,7 +28857,7 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ135">
         <v>1</v>
@@ -29051,7 +29063,7 @@
         <v>0.5</v>
       </c>
       <c r="AP136">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ136">
         <v>0.44</v>
@@ -29260,7 +29272,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR137">
         <v>1.54</v>
@@ -29797,7 +29809,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30003,7 +30015,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30209,7 +30221,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30415,7 +30427,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -30827,7 +30839,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31033,7 +31045,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31141,7 +31153,7 @@
         <v>7</v>
       </c>
       <c r="AZ146">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA146">
         <v>5</v>
@@ -31239,7 +31251,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31335,7 +31347,7 @@
         <v>9</v>
       </c>
       <c r="AV147">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW147">
         <v>19</v>
@@ -31344,10 +31356,10 @@
         <v>4</v>
       </c>
       <c r="AY147">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AZ147">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA147">
         <v>16</v>
@@ -31395,6 +31407,624 @@
         <v>0</v>
       </c>
       <c r="BP147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7762745</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45634.29166666666</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>73</v>
+      </c>
+      <c r="H148" t="s">
+        <v>77</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>174</v>
+      </c>
+      <c r="P148" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q148">
+        <v>2.75</v>
+      </c>
+      <c r="R148">
+        <v>2.1</v>
+      </c>
+      <c r="S148">
+        <v>4.33</v>
+      </c>
+      <c r="T148">
+        <v>1.53</v>
+      </c>
+      <c r="U148">
+        <v>2.38</v>
+      </c>
+      <c r="V148">
+        <v>3.5</v>
+      </c>
+      <c r="W148">
+        <v>1.29</v>
+      </c>
+      <c r="X148">
+        <v>11</v>
+      </c>
+      <c r="Y148">
+        <v>1.05</v>
+      </c>
+      <c r="Z148">
+        <v>2</v>
+      </c>
+      <c r="AA148">
+        <v>3.3</v>
+      </c>
+      <c r="AB148">
+        <v>4</v>
+      </c>
+      <c r="AC148">
+        <v>1.01</v>
+      </c>
+      <c r="AD148">
+        <v>7.6</v>
+      </c>
+      <c r="AE148">
+        <v>1.42</v>
+      </c>
+      <c r="AF148">
+        <v>2.75</v>
+      </c>
+      <c r="AG148">
+        <v>2</v>
+      </c>
+      <c r="AH148">
+        <v>1.8</v>
+      </c>
+      <c r="AI148">
+        <v>1.8</v>
+      </c>
+      <c r="AJ148">
+        <v>1.91</v>
+      </c>
+      <c r="AK148">
+        <v>1.22</v>
+      </c>
+      <c r="AL148">
+        <v>1.3</v>
+      </c>
+      <c r="AM148">
+        <v>1.6</v>
+      </c>
+      <c r="AN148">
+        <v>1</v>
+      </c>
+      <c r="AO148">
+        <v>1</v>
+      </c>
+      <c r="AP148">
+        <v>0.9</v>
+      </c>
+      <c r="AQ148">
+        <v>1.2</v>
+      </c>
+      <c r="AR148">
+        <v>1.13</v>
+      </c>
+      <c r="AS148">
+        <v>1.13</v>
+      </c>
+      <c r="AT148">
+        <v>2.26</v>
+      </c>
+      <c r="AU148">
+        <v>9</v>
+      </c>
+      <c r="AV148">
+        <v>0</v>
+      </c>
+      <c r="AW148">
+        <v>8</v>
+      </c>
+      <c r="AX148">
+        <v>3</v>
+      </c>
+      <c r="AY148">
+        <v>20</v>
+      </c>
+      <c r="AZ148">
+        <v>4</v>
+      </c>
+      <c r="BA148">
+        <v>15</v>
+      </c>
+      <c r="BB148">
+        <v>4</v>
+      </c>
+      <c r="BC148">
+        <v>19</v>
+      </c>
+      <c r="BD148">
+        <v>0</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>0</v>
+      </c>
+      <c r="BG148">
+        <v>0</v>
+      </c>
+      <c r="BH148">
+        <v>0</v>
+      </c>
+      <c r="BI148">
+        <v>0</v>
+      </c>
+      <c r="BJ148">
+        <v>0</v>
+      </c>
+      <c r="BK148">
+        <v>0</v>
+      </c>
+      <c r="BL148">
+        <v>0</v>
+      </c>
+      <c r="BM148">
+        <v>0</v>
+      </c>
+      <c r="BN148">
+        <v>0</v>
+      </c>
+      <c r="BO148">
+        <v>0</v>
+      </c>
+      <c r="BP148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7762742</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45634.39583333334</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>71</v>
+      </c>
+      <c r="H149" t="s">
+        <v>79</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>86</v>
+      </c>
+      <c r="P149" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q149">
+        <v>7.5</v>
+      </c>
+      <c r="R149">
+        <v>2.1</v>
+      </c>
+      <c r="S149">
+        <v>2.05</v>
+      </c>
+      <c r="T149">
+        <v>1.44</v>
+      </c>
+      <c r="U149">
+        <v>2.63</v>
+      </c>
+      <c r="V149">
+        <v>3.25</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>9</v>
+      </c>
+      <c r="Y149">
+        <v>1.07</v>
+      </c>
+      <c r="Z149">
+        <v>8</v>
+      </c>
+      <c r="AA149">
+        <v>3.8</v>
+      </c>
+      <c r="AB149">
+        <v>1.48</v>
+      </c>
+      <c r="AC149">
+        <v>1.03</v>
+      </c>
+      <c r="AD149">
+        <v>6.95</v>
+      </c>
+      <c r="AE149">
+        <v>1.39</v>
+      </c>
+      <c r="AF149">
+        <v>2.85</v>
+      </c>
+      <c r="AG149">
+        <v>2.15</v>
+      </c>
+      <c r="AH149">
+        <v>1.67</v>
+      </c>
+      <c r="AI149">
+        <v>2.38</v>
+      </c>
+      <c r="AJ149">
+        <v>1.53</v>
+      </c>
+      <c r="AK149">
+        <v>1.91</v>
+      </c>
+      <c r="AL149">
+        <v>1.24</v>
+      </c>
+      <c r="AM149">
+        <v>1.12</v>
+      </c>
+      <c r="AN149">
+        <v>1.22</v>
+      </c>
+      <c r="AO149">
+        <v>1.78</v>
+      </c>
+      <c r="AP149">
+        <v>1.1</v>
+      </c>
+      <c r="AQ149">
+        <v>1.9</v>
+      </c>
+      <c r="AR149">
+        <v>1.37</v>
+      </c>
+      <c r="AS149">
+        <v>1.79</v>
+      </c>
+      <c r="AT149">
+        <v>3.16</v>
+      </c>
+      <c r="AU149">
+        <v>3</v>
+      </c>
+      <c r="AV149">
+        <v>6</v>
+      </c>
+      <c r="AW149">
+        <v>4</v>
+      </c>
+      <c r="AX149">
+        <v>5</v>
+      </c>
+      <c r="AY149">
+        <v>8</v>
+      </c>
+      <c r="AZ149">
+        <v>14</v>
+      </c>
+      <c r="BA149">
+        <v>3</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>5</v>
+      </c>
+      <c r="BD149">
+        <v>0</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>0</v>
+      </c>
+      <c r="BG149">
+        <v>0</v>
+      </c>
+      <c r="BH149">
+        <v>0</v>
+      </c>
+      <c r="BI149">
+        <v>0</v>
+      </c>
+      <c r="BJ149">
+        <v>0</v>
+      </c>
+      <c r="BK149">
+        <v>0</v>
+      </c>
+      <c r="BL149">
+        <v>0</v>
+      </c>
+      <c r="BM149">
+        <v>0</v>
+      </c>
+      <c r="BN149">
+        <v>0</v>
+      </c>
+      <c r="BO149">
+        <v>0</v>
+      </c>
+      <c r="BP149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7762741</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45634.5</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>75</v>
+      </c>
+      <c r="H150" t="s">
+        <v>82</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>175</v>
+      </c>
+      <c r="P150" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q150">
+        <v>1.95</v>
+      </c>
+      <c r="R150">
+        <v>2.2</v>
+      </c>
+      <c r="S150">
+        <v>9</v>
+      </c>
+      <c r="T150">
+        <v>1.44</v>
+      </c>
+      <c r="U150">
+        <v>2.63</v>
+      </c>
+      <c r="V150">
+        <v>3</v>
+      </c>
+      <c r="W150">
+        <v>1.36</v>
+      </c>
+      <c r="X150">
+        <v>9</v>
+      </c>
+      <c r="Y150">
+        <v>1.07</v>
+      </c>
+      <c r="Z150">
+        <v>1.38</v>
+      </c>
+      <c r="AA150">
+        <v>4.2</v>
+      </c>
+      <c r="AB150">
+        <v>10</v>
+      </c>
+      <c r="AC150">
+        <v>1.01</v>
+      </c>
+      <c r="AD150">
+        <v>7.7</v>
+      </c>
+      <c r="AE150">
+        <v>1.35</v>
+      </c>
+      <c r="AF150">
+        <v>3.05</v>
+      </c>
+      <c r="AG150">
+        <v>2.1</v>
+      </c>
+      <c r="AH150">
+        <v>1.7</v>
+      </c>
+      <c r="AI150">
+        <v>2.5</v>
+      </c>
+      <c r="AJ150">
+        <v>1.5</v>
+      </c>
+      <c r="AK150">
+        <v>1.11</v>
+      </c>
+      <c r="AL150">
+        <v>1.2</v>
+      </c>
+      <c r="AM150">
+        <v>2.06</v>
+      </c>
+      <c r="AN150">
+        <v>2.78</v>
+      </c>
+      <c r="AO150">
+        <v>2.33</v>
+      </c>
+      <c r="AP150">
+        <v>2.8</v>
+      </c>
+      <c r="AQ150">
+        <v>2.1</v>
+      </c>
+      <c r="AR150">
+        <v>1.74</v>
+      </c>
+      <c r="AS150">
+        <v>1.43</v>
+      </c>
+      <c r="AT150">
+        <v>3.17</v>
+      </c>
+      <c r="AU150">
+        <v>4</v>
+      </c>
+      <c r="AV150">
+        <v>0</v>
+      </c>
+      <c r="AW150">
+        <v>2</v>
+      </c>
+      <c r="AX150">
+        <v>10</v>
+      </c>
+      <c r="AY150">
+        <v>6</v>
+      </c>
+      <c r="AZ150">
+        <v>10</v>
+      </c>
+      <c r="BA150">
+        <v>4</v>
+      </c>
+      <c r="BB150">
+        <v>3</v>
+      </c>
+      <c r="BC150">
+        <v>7</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>0</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BH150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>0</v>
+      </c>
+      <c r="BJ150">
+        <v>0</v>
+      </c>
+      <c r="BK150">
+        <v>0</v>
+      </c>
+      <c r="BL150">
+        <v>0</v>
+      </c>
+      <c r="BM150">
+        <v>0</v>
+      </c>
+      <c r="BN150">
+        <v>0</v>
+      </c>
+      <c r="BO150">
+        <v>0</v>
+      </c>
+      <c r="BP150">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,9 @@
     <t>['12', '69', '80']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -761,6 +764,12 @@
   </si>
   <si>
     <t>['1', '23']</t>
+  </si>
+  <si>
+    <t>['59', '63']</t>
+  </si>
+  <si>
+    <t>['24', '54', '82']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1668,7 +1677,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ3">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1874,7 +1883,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1999,7 +2008,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2205,7 +2214,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2617,7 +2626,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2695,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ8">
         <v>1.56</v>
@@ -2823,7 +2832,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3647,7 +3656,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3853,7 +3862,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4549,10 +4558,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ17">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR17">
         <v>1.12</v>
@@ -4677,7 +4686,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4961,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ19">
         <v>1.22</v>
@@ -5089,7 +5098,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>1.91</v>
@@ -5170,7 +5179,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR20">
         <v>0.96</v>
@@ -5295,7 +5304,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5501,7 +5510,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5707,7 +5716,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5913,7 +5922,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6119,7 +6128,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6325,7 +6334,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6943,7 +6952,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7227,10 +7236,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7355,7 +7364,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7561,7 +7570,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7642,7 +7651,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR32">
         <v>2.55</v>
@@ -8179,7 +8188,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>8.800000000000001</v>
@@ -8257,7 +8266,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ35">
         <v>2.1</v>
@@ -8591,7 +8600,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9415,7 +9424,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>2.38</v>
@@ -9702,7 +9711,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ42">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR42">
         <v>1.54</v>
@@ -9827,7 +9836,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10033,7 +10042,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10445,7 +10454,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10526,7 +10535,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR46">
         <v>1.81</v>
@@ -10651,7 +10660,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10857,7 +10866,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
@@ -11141,7 +11150,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ49">
         <v>1.9</v>
@@ -11475,7 +11484,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11681,7 +11690,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>5.5</v>
@@ -11759,7 +11768,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ52">
         <v>1.7</v>
@@ -12093,7 +12102,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12505,7 +12514,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12586,7 +12595,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ56">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR56">
         <v>1.1</v>
@@ -12711,7 +12720,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12917,7 +12926,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12998,7 +13007,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR58">
         <v>1.97</v>
@@ -13123,7 +13132,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13329,7 +13338,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13535,7 +13544,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -13741,7 +13750,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13947,7 +13956,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14153,7 +14162,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14231,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ64">
         <v>1.2</v>
@@ -14771,7 +14780,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14977,7 +14986,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15055,7 +15064,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ68">
         <v>1.9</v>
@@ -15595,7 +15604,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16088,7 +16097,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ73">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR73">
         <v>1.15</v>
@@ -16213,7 +16222,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16831,7 +16840,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -16912,7 +16921,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR77">
         <v>1.79</v>
@@ -17037,7 +17046,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17243,7 +17252,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17449,7 +17458,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17655,7 +17664,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18067,7 +18076,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18557,7 +18566,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ85">
         <v>0.44</v>
@@ -18685,7 +18694,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -18763,7 +18772,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ86">
         <v>0.5600000000000001</v>
@@ -20002,7 +20011,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ92">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR92">
         <v>1.22</v>
@@ -20333,7 +20342,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20539,7 +20548,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20620,7 +20629,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR95">
         <v>1.49</v>
@@ -20823,7 +20832,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ96">
         <v>0.89</v>
@@ -20951,7 +20960,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21775,7 +21784,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22059,7 +22068,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22393,7 +22402,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22474,7 +22483,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ104">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -22599,7 +22608,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22680,7 +22689,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR105">
         <v>1.16</v>
@@ -22805,7 +22814,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23217,7 +23226,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23629,7 +23638,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24041,7 +24050,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24865,7 +24874,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25071,7 +25080,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25277,7 +25286,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25355,7 +25364,7 @@
         <v>1.43</v>
       </c>
       <c r="AP118">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ118">
         <v>1.3</v>
@@ -25483,7 +25492,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25689,7 +25698,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -25767,7 +25776,7 @@
         <v>3</v>
       </c>
       <c r="AP120">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ120">
         <v>2.75</v>
@@ -25973,7 +25982,7 @@
         <v>0.29</v>
       </c>
       <c r="AP121">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ121">
         <v>0.22</v>
@@ -26101,7 +26110,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26307,7 +26316,7 @@
         <v>158</v>
       </c>
       <c r="P123" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26925,7 +26934,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27131,7 +27140,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27337,7 +27346,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27543,7 +27552,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27621,7 +27630,7 @@
         <v>1.38</v>
       </c>
       <c r="AP129">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ129">
         <v>1.3</v>
@@ -27749,7 +27758,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -27955,7 +27964,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28161,7 +28170,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -28445,7 +28454,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ133">
         <v>1.22</v>
@@ -28860,7 +28869,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29066,7 +29075,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ136">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR136">
         <v>1.69</v>
@@ -29809,7 +29818,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30015,7 +30024,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30221,7 +30230,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30427,7 +30436,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -30839,7 +30848,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -30932,10 +30941,10 @@
         <v>2.47</v>
       </c>
       <c r="AU145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV145">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW145">
         <v>8</v>
@@ -30944,10 +30953,10 @@
         <v>3</v>
       </c>
       <c r="AY145">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ145">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA145">
         <v>7</v>
@@ -31045,7 +31054,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31138,10 +31147,10 @@
         <v>2.6</v>
       </c>
       <c r="AU146">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV146">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW146">
         <v>4</v>
@@ -31150,10 +31159,10 @@
         <v>13</v>
       </c>
       <c r="AY146">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ146">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="BA146">
         <v>5</v>
@@ -31251,7 +31260,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31457,7 +31466,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31568,13 +31577,13 @@
         <v>4</v>
       </c>
       <c r="BA148">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB148">
         <v>4</v>
       </c>
       <c r="BC148">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD148">
         <v>0</v>
@@ -31663,7 +31672,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -31759,7 +31768,7 @@
         <v>3</v>
       </c>
       <c r="AV149">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW149">
         <v>4</v>
@@ -31771,7 +31780,7 @@
         <v>8</v>
       </c>
       <c r="AZ149">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA149">
         <v>3</v>
@@ -31962,7 +31971,7 @@
         <v>3.17</v>
       </c>
       <c r="AU150">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV150">
         <v>0</v>
@@ -31974,10 +31983,10 @@
         <v>10</v>
       </c>
       <c r="AY150">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ150">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA150">
         <v>4</v>
@@ -32025,6 +32034,418 @@
         <v>0</v>
       </c>
       <c r="BP150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7762740</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45635.40625</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>76</v>
+      </c>
+      <c r="H151" t="s">
+        <v>78</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>86</v>
+      </c>
+      <c r="P151" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q151">
+        <v>6.5</v>
+      </c>
+      <c r="R151">
+        <v>2.05</v>
+      </c>
+      <c r="S151">
+        <v>2.3</v>
+      </c>
+      <c r="T151">
+        <v>1.53</v>
+      </c>
+      <c r="U151">
+        <v>2.38</v>
+      </c>
+      <c r="V151">
+        <v>3.75</v>
+      </c>
+      <c r="W151">
+        <v>1.25</v>
+      </c>
+      <c r="X151">
+        <v>11</v>
+      </c>
+      <c r="Y151">
+        <v>1.05</v>
+      </c>
+      <c r="Z151">
+        <v>6.25</v>
+      </c>
+      <c r="AA151">
+        <v>3.5</v>
+      </c>
+      <c r="AB151">
+        <v>1.62</v>
+      </c>
+      <c r="AC151">
+        <v>1.1</v>
+      </c>
+      <c r="AD151">
+        <v>6.2</v>
+      </c>
+      <c r="AE151">
+        <v>1.49</v>
+      </c>
+      <c r="AF151">
+        <v>2.4</v>
+      </c>
+      <c r="AG151">
+        <v>2.4</v>
+      </c>
+      <c r="AH151">
+        <v>1.53</v>
+      </c>
+      <c r="AI151">
+        <v>2.38</v>
+      </c>
+      <c r="AJ151">
+        <v>1.53</v>
+      </c>
+      <c r="AK151">
+        <v>1.62</v>
+      </c>
+      <c r="AL151">
+        <v>1.3</v>
+      </c>
+      <c r="AM151">
+        <v>1.2</v>
+      </c>
+      <c r="AN151">
+        <v>0.78</v>
+      </c>
+      <c r="AO151">
+        <v>1</v>
+      </c>
+      <c r="AP151">
+        <v>0.7</v>
+      </c>
+      <c r="AQ151">
+        <v>1.2</v>
+      </c>
+      <c r="AR151">
+        <v>0.99</v>
+      </c>
+      <c r="AS151">
+        <v>1.23</v>
+      </c>
+      <c r="AT151">
+        <v>2.22</v>
+      </c>
+      <c r="AU151">
+        <v>5</v>
+      </c>
+      <c r="AV151">
+        <v>5</v>
+      </c>
+      <c r="AW151">
+        <v>4</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>11</v>
+      </c>
+      <c r="AZ151">
+        <v>9</v>
+      </c>
+      <c r="BA151">
+        <v>5</v>
+      </c>
+      <c r="BB151">
+        <v>2</v>
+      </c>
+      <c r="BC151">
+        <v>7</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>0</v>
+      </c>
+      <c r="BG151">
+        <v>0</v>
+      </c>
+      <c r="BH151">
+        <v>0</v>
+      </c>
+      <c r="BI151">
+        <v>0</v>
+      </c>
+      <c r="BJ151">
+        <v>0</v>
+      </c>
+      <c r="BK151">
+        <v>0</v>
+      </c>
+      <c r="BL151">
+        <v>0</v>
+      </c>
+      <c r="BM151">
+        <v>0</v>
+      </c>
+      <c r="BN151">
+        <v>0</v>
+      </c>
+      <c r="BO151">
+        <v>0</v>
+      </c>
+      <c r="BP151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7762739</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45635.5</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>84</v>
+      </c>
+      <c r="H152" t="s">
+        <v>85</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>3</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>176</v>
+      </c>
+      <c r="P152" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q152">
+        <v>2.75</v>
+      </c>
+      <c r="R152">
+        <v>2.2</v>
+      </c>
+      <c r="S152">
+        <v>3.75</v>
+      </c>
+      <c r="T152">
+        <v>1.53</v>
+      </c>
+      <c r="U152">
+        <v>2.38</v>
+      </c>
+      <c r="V152">
+        <v>3.75</v>
+      </c>
+      <c r="W152">
+        <v>1.25</v>
+      </c>
+      <c r="X152">
+        <v>11</v>
+      </c>
+      <c r="Y152">
+        <v>1.05</v>
+      </c>
+      <c r="Z152">
+        <v>2.1</v>
+      </c>
+      <c r="AA152">
+        <v>3.6</v>
+      </c>
+      <c r="AB152">
+        <v>3.3</v>
+      </c>
+      <c r="AC152">
+        <v>1.02</v>
+      </c>
+      <c r="AD152">
+        <v>7.2</v>
+      </c>
+      <c r="AE152">
+        <v>1.43</v>
+      </c>
+      <c r="AF152">
+        <v>2.7</v>
+      </c>
+      <c r="AG152">
+        <v>1.8</v>
+      </c>
+      <c r="AH152">
+        <v>2</v>
+      </c>
+      <c r="AI152">
+        <v>1.67</v>
+      </c>
+      <c r="AJ152">
+        <v>2.1</v>
+      </c>
+      <c r="AK152">
+        <v>1.25</v>
+      </c>
+      <c r="AL152">
+        <v>1.29</v>
+      </c>
+      <c r="AM152">
+        <v>1.55</v>
+      </c>
+      <c r="AN152">
+        <v>1.89</v>
+      </c>
+      <c r="AO152">
+        <v>0.44</v>
+      </c>
+      <c r="AP152">
+        <v>1.7</v>
+      </c>
+      <c r="AQ152">
+        <v>0.7</v>
+      </c>
+      <c r="AR152">
+        <v>1.47</v>
+      </c>
+      <c r="AS152">
+        <v>1.52</v>
+      </c>
+      <c r="AT152">
+        <v>2.99</v>
+      </c>
+      <c r="AU152">
+        <v>5</v>
+      </c>
+      <c r="AV152">
+        <v>4</v>
+      </c>
+      <c r="AW152">
+        <v>15</v>
+      </c>
+      <c r="AX152">
+        <v>6</v>
+      </c>
+      <c r="AY152">
+        <v>27</v>
+      </c>
+      <c r="AZ152">
+        <v>12</v>
+      </c>
+      <c r="BA152">
+        <v>6</v>
+      </c>
+      <c r="BB152">
+        <v>1</v>
+      </c>
+      <c r="BC152">
+        <v>7</v>
+      </c>
+      <c r="BD152">
+        <v>0</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>0</v>
+      </c>
+      <c r="BG152">
+        <v>0</v>
+      </c>
+      <c r="BH152">
+        <v>0</v>
+      </c>
+      <c r="BI152">
+        <v>0</v>
+      </c>
+      <c r="BJ152">
+        <v>0</v>
+      </c>
+      <c r="BK152">
+        <v>0</v>
+      </c>
+      <c r="BL152">
+        <v>0</v>
+      </c>
+      <c r="BM152">
+        <v>0</v>
+      </c>
+      <c r="BN152">
+        <v>0</v>
+      </c>
+      <c r="BO152">
+        <v>0</v>
+      </c>
+      <c r="BP152">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -31559,10 +31559,10 @@
         <v>2.26</v>
       </c>
       <c r="AU148">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW148">
         <v>8</v>
@@ -31571,19 +31571,19 @@
         <v>3</v>
       </c>
       <c r="AY148">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ148">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA148">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB148">
         <v>4</v>
       </c>
       <c r="BC148">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD148">
         <v>0</v>
@@ -32395,10 +32395,10 @@
         <v>6</v>
       </c>
       <c r="AY152">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ152">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA152">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -32180,7 +32180,7 @@
         <v>5</v>
       </c>
       <c r="AV151">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW151">
         <v>4</v>
@@ -32192,7 +32192,7 @@
         <v>11</v>
       </c>
       <c r="AZ151">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA151">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,9 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['-1', '-1']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -770,6 +773,9 @@
   </si>
   <si>
     <t>['24', '54', '82']</t>
+  </si>
+  <si>
+    <t>['-1', '-1', '-1', '-1']</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2008,7 +2014,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2214,7 +2220,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2626,7 +2632,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2832,7 +2838,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3656,7 +3662,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3862,7 +3868,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3940,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ14">
         <v>0.89</v>
@@ -4686,7 +4692,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5098,7 +5104,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q20">
         <v>1.91</v>
@@ -5304,7 +5310,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5510,7 +5516,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5716,7 +5722,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5922,7 +5928,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6128,7 +6134,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6334,7 +6340,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6952,7 +6958,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7364,7 +7370,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7570,7 +7576,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8188,7 +8194,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>8.800000000000001</v>
@@ -8600,7 +8606,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9424,7 +9430,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>2.38</v>
@@ -9502,7 +9508,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ41">
         <v>1.56</v>
@@ -9836,7 +9842,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -9917,7 +9923,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ43">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR43">
         <v>1.51</v>
@@ -10042,7 +10048,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10454,7 +10460,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10660,7 +10666,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10866,7 +10872,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>2.4</v>
@@ -11484,7 +11490,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11690,7 +11696,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>5.5</v>
@@ -12102,7 +12108,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12514,7 +12520,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12720,7 +12726,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12926,7 +12932,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13132,7 +13138,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13338,7 +13344,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13419,7 +13425,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ60">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR60">
         <v>1.59</v>
@@ -13544,7 +13550,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -13750,7 +13756,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13831,7 +13837,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ62">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR62">
         <v>1.3</v>
@@ -13956,7 +13962,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14162,7 +14168,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14780,7 +14786,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14986,7 +14992,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15604,7 +15610,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16222,7 +16228,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16840,7 +16846,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17046,7 +17052,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17127,7 +17133,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ78">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR78">
         <v>1.46</v>
@@ -17252,7 +17258,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17458,7 +17464,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17664,7 +17670,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18076,7 +18082,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18360,7 +18366,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ84">
         <v>1.9</v>
@@ -18694,7 +18700,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -20008,7 +20014,7 @@
         <v>0.67</v>
       </c>
       <c r="AP92">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92">
         <v>0.7</v>
@@ -20342,7 +20348,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20423,7 +20429,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ94">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR94">
         <v>1.21</v>
@@ -20548,7 +20554,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20960,7 +20966,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21656,7 +21662,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ100">
         <v>1.9</v>
@@ -21784,7 +21790,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22402,7 +22408,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22608,7 +22614,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22814,7 +22820,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23226,7 +23232,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23638,7 +23644,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24050,7 +24056,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24540,7 +24546,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ114">
         <v>0.5600000000000001</v>
@@ -24874,7 +24880,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25080,7 +25086,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25286,7 +25292,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25492,7 +25498,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25698,7 +25704,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -25779,7 +25785,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ120">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR120">
         <v>1.46</v>
@@ -26110,7 +26116,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26316,7 +26322,7 @@
         <v>158</v>
       </c>
       <c r="P123" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26394,7 +26400,7 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ123">
         <v>0.44</v>
@@ -26934,7 +26940,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27140,7 +27146,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27221,7 +27227,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ127">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR127">
         <v>2.03</v>
@@ -27346,7 +27352,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27552,7 +27558,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27758,7 +27764,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -27964,7 +27970,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28170,7 +28176,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -29818,7 +29824,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30024,7 +30030,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30105,7 +30111,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ141">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AR141">
         <v>1.45</v>
@@ -30230,7 +30236,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30436,7 +30442,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -30720,7 +30726,7 @@
         <v>1.13</v>
       </c>
       <c r="AP144">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -30848,7 +30854,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31054,7 +31060,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31260,7 +31266,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31466,7 +31472,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31672,7 +31678,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32084,7 +32090,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32290,7 +32296,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32446,6 +32452,212 @@
         <v>0</v>
       </c>
       <c r="BP152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7762621</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45645.5</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>82</v>
+      </c>
+      <c r="H153" t="s">
+        <v>75</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>4</v>
+      </c>
+      <c r="N153">
+        <v>6</v>
+      </c>
+      <c r="O153" t="s">
+        <v>177</v>
+      </c>
+      <c r="P153" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q153">
+        <v>4.75</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>2.75</v>
+      </c>
+      <c r="T153">
+        <v>1.5</v>
+      </c>
+      <c r="U153">
+        <v>2.5</v>
+      </c>
+      <c r="V153">
+        <v>3.5</v>
+      </c>
+      <c r="W153">
+        <v>1.29</v>
+      </c>
+      <c r="X153">
+        <v>11</v>
+      </c>
+      <c r="Y153">
+        <v>1.05</v>
+      </c>
+      <c r="Z153">
+        <v>3.9</v>
+      </c>
+      <c r="AA153">
+        <v>3.3</v>
+      </c>
+      <c r="AB153">
+        <v>2</v>
+      </c>
+      <c r="AC153">
+        <v>1.02</v>
+      </c>
+      <c r="AD153">
+        <v>8</v>
+      </c>
+      <c r="AE153">
+        <v>1.42</v>
+      </c>
+      <c r="AF153">
+        <v>2.75</v>
+      </c>
+      <c r="AG153">
+        <v>2.35</v>
+      </c>
+      <c r="AH153">
+        <v>1.57</v>
+      </c>
+      <c r="AI153">
+        <v>2.2</v>
+      </c>
+      <c r="AJ153">
+        <v>1.62</v>
+      </c>
+      <c r="AK153">
+        <v>1.71</v>
+      </c>
+      <c r="AL153">
+        <v>1.28</v>
+      </c>
+      <c r="AM153">
+        <v>1.23</v>
+      </c>
+      <c r="AN153">
+        <v>2.38</v>
+      </c>
+      <c r="AO153">
+        <v>2.75</v>
+      </c>
+      <c r="AP153">
+        <v>2.11</v>
+      </c>
+      <c r="AQ153">
+        <v>2.78</v>
+      </c>
+      <c r="AR153">
+        <v>1.54</v>
+      </c>
+      <c r="AS153">
+        <v>1.65</v>
+      </c>
+      <c r="AT153">
+        <v>3.19</v>
+      </c>
+      <c r="AU153">
+        <v>6</v>
+      </c>
+      <c r="AV153">
+        <v>6</v>
+      </c>
+      <c r="AW153">
+        <v>7</v>
+      </c>
+      <c r="AX153">
+        <v>8</v>
+      </c>
+      <c r="AY153">
+        <v>17</v>
+      </c>
+      <c r="AZ153">
+        <v>18</v>
+      </c>
+      <c r="BA153">
+        <v>5</v>
+      </c>
+      <c r="BB153">
+        <v>2</v>
+      </c>
+      <c r="BC153">
+        <v>7</v>
+      </c>
+      <c r="BD153">
+        <v>0</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>0</v>
+      </c>
+      <c r="BG153">
+        <v>0</v>
+      </c>
+      <c r="BH153">
+        <v>0</v>
+      </c>
+      <c r="BI153">
+        <v>0</v>
+      </c>
+      <c r="BJ153">
+        <v>0</v>
+      </c>
+      <c r="BK153">
+        <v>0</v>
+      </c>
+      <c r="BL153">
+        <v>0</v>
+      </c>
+      <c r="BM153">
+        <v>0</v>
+      </c>
+      <c r="BN153">
+        <v>0</v>
+      </c>
+      <c r="BO153">
+        <v>0</v>
+      </c>
+      <c r="BP153">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -547,7 +547,7 @@
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['-1', '-1']</t>
+    <t>['5', '63']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -775,7 +775,7 @@
     <t>['24', '54', '82']</t>
   </si>
   <si>
-    <t>['-1', '-1', '-1', '-1']</t>
+    <t>['20', '40', '45+1', '55']</t>
   </si>
 </sst>
 </file>
@@ -32481,13 +32481,13 @@
         <v>75</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L153">
         <v>2</v>
@@ -32595,7 +32595,7 @@
         <v>3.19</v>
       </c>
       <c r="AU153">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV153">
         <v>6</v>
@@ -32607,7 +32607,7 @@
         <v>8</v>
       </c>
       <c r="AY153">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ153">
         <v>18</v>
